--- a/private/overview_blogs.xlsx
+++ b/private/overview_blogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C90B354-8ECB-496E-B63B-52D16828B625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4B7F0B-4D71-4895-B0E2-EE8DC50A4E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -217,6 +217,42 @@
   </si>
   <si>
     <t>The score esports</t>
+  </si>
+  <si>
+    <t>Mein MMO</t>
+  </si>
+  <si>
+    <t>https://mein-mmo.de/league-of-legends/news/</t>
+  </si>
+  <si>
+    <t>https://dotesports.com/league-of-legends</t>
+  </si>
+  <si>
+    <t>dotesports</t>
+  </si>
+  <si>
+    <t>https://www.readmore.de/content-category/league-of-legends/</t>
+  </si>
+  <si>
+    <t>Readmore</t>
+  </si>
+  <si>
+    <t>https://comicbook.com/gaming/</t>
+  </si>
+  <si>
+    <t>comicbook</t>
+  </si>
+  <si>
+    <t>https://www.newsweek.com/newsgeek</t>
+  </si>
+  <si>
+    <t>newsweek</t>
+  </si>
+  <si>
+    <t>invenglobal</t>
+  </si>
+  <si>
+    <t>https://www.invenglobal.com/game/League%20of%20Legends</t>
   </si>
 </sst>
 </file>
@@ -588,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,6 +945,72 @@
       </c>
       <c r="C27" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -939,8 +1041,14 @@
     <hyperlink ref="C25" r:id="rId24" xr:uid="{B9C6011B-B31F-4254-81B7-2BA0BA946C02}"/>
     <hyperlink ref="C26" r:id="rId25" xr:uid="{645737ED-325F-46CA-8FF3-C8370BB6F6CF}"/>
     <hyperlink ref="C27" r:id="rId26" location=".eFVsurXciz" xr:uid="{89F588CD-D142-4AED-A9E9-7F1AE58DEE13}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{4F8F5E85-EDEE-489A-8118-8BAE16B81468}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{619546BC-B778-4C2E-8FD2-2BA4795DC328}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{7CCF8493-610C-4976-BA77-5E6B685D6E8C}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{DACD9C35-D7F1-4A74-A866-63C797CC3F70}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{8FBF07EB-D6BC-4F9F-9597-CF0919985C36}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{62B09FBC-314A-4DB3-8925-A995B378A743}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId33"/>
 </worksheet>
 </file>
--- a/private/overview_blogs.xlsx
+++ b/private/overview_blogs.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4B7F0B-4D71-4895-B0E2-EE8DC50A4E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796BD4CE-B98C-40FD-945F-E3959E17D9C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41205" yWindow="4170" windowWidth="21600" windowHeight="12735" tabRatio="483" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Englisch" sheetId="2" r:id="rId1"/>
+    <sheet name="Deutsch" sheetId="3" r:id="rId2"/>
+    <sheet name="Spanisch" sheetId="4" r:id="rId3"/>
+    <sheet name="Polnisch" sheetId="5" r:id="rId4"/>
+    <sheet name="Französisch" sheetId="6" r:id="rId5"/>
+    <sheet name="REST" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="307">
   <si>
     <t>Name</t>
   </si>
@@ -45,9 +52,6 @@
     <t>https://blogoflegends.com/</t>
   </si>
   <si>
-    <t>Blog of Legends</t>
-  </si>
-  <si>
     <t>https://www.nerfplz.com/</t>
   </si>
   <si>
@@ -78,9 +82,6 @@
     <t>https://www.spiegel.de/sport/sonst/league-of-legends-die-worlds-2019-in-europa-a-1289371.html</t>
   </si>
   <si>
-    <t>https://www.mobafire.com/league-of-legends/forum</t>
-  </si>
-  <si>
     <t>https://www.derstandard.de/web/games</t>
   </si>
   <si>
@@ -90,9 +91,6 @@
     <t>https://gamekit.com/league-of-legends/qaa/</t>
   </si>
   <si>
-    <t>http://www.lolnetwork.net/forum/</t>
-  </si>
-  <si>
     <t>https://www.elitepvpers.com/forum/league-legends/</t>
   </si>
   <si>
@@ -111,9 +109,6 @@
     <t>https://www.thescoreesports.com/home</t>
   </si>
   <si>
-    <t>Englisch</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -141,9 +136,6 @@
     <t>BoostRoyal</t>
   </si>
   <si>
-    <t>Englisch/Deutsch…</t>
-  </si>
-  <si>
     <t>LOL AcademY</t>
   </si>
   <si>
@@ -156,15 +148,9 @@
     <t>Spiegel</t>
   </si>
   <si>
-    <t>Mobafire</t>
-  </si>
-  <si>
     <t>Casino</t>
   </si>
   <si>
-    <t>Deutsch</t>
-  </si>
-  <si>
     <t>Der Standard</t>
   </si>
   <si>
@@ -174,18 +160,12 @@
     <t>http://www.jeuxvideo.com/jeux/jeu-70719/news/</t>
   </si>
   <si>
-    <t>Französisch</t>
-  </si>
-  <si>
     <t>jeuxvideo</t>
   </si>
   <si>
     <t>liquidlegends</t>
   </si>
   <si>
-    <t>LOL network</t>
-  </si>
-  <si>
     <t>ELITEPVPERS</t>
   </si>
   <si>
@@ -195,24 +175,6 @@
     <t>Summoners Inn</t>
   </si>
   <si>
-    <t>https://www.washingtonpost.com/video-games/esports/?nid=launcher_navbar_esports</t>
-  </si>
-  <si>
-    <t>The Washington Post</t>
-  </si>
-  <si>
-    <t>https://esportsobserver.com/</t>
-  </si>
-  <si>
-    <t>THE ESPORTS OBSERVER</t>
-  </si>
-  <si>
-    <t>https://www.theversed.com/channel/esports/#.eFVsurXciz</t>
-  </si>
-  <si>
-    <t>The Versed</t>
-  </si>
-  <si>
     <t>GosuGamers</t>
   </si>
   <si>
@@ -231,12 +193,6 @@
     <t>dotesports</t>
   </si>
   <si>
-    <t>https://www.readmore.de/content-category/league-of-legends/</t>
-  </si>
-  <si>
-    <t>Readmore</t>
-  </si>
-  <si>
     <t>https://comicbook.com/gaming/</t>
   </si>
   <si>
@@ -253,13 +209,763 @@
   </si>
   <si>
     <t>https://www.invenglobal.com/game/League%20of%20Legends</t>
+  </si>
+  <si>
+    <t>https://boop.pl/league-of-legends</t>
+  </si>
+  <si>
+    <t>boop</t>
+  </si>
+  <si>
+    <t>https://happygamer.com/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://esports.as.com/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://www.sport1.de/esports/league-of-legends</t>
+  </si>
+  <si>
+    <t>happygamer</t>
+  </si>
+  <si>
+    <t>esports.as</t>
+  </si>
+  <si>
+    <t>cybersport</t>
+  </si>
+  <si>
+    <t>sport1</t>
+  </si>
+  <si>
+    <t>ENGLISCH</t>
+  </si>
+  <si>
+    <t>DEUTSCH</t>
+  </si>
+  <si>
+    <t>SPANISCH</t>
+  </si>
+  <si>
+    <t>POLNISCH</t>
+  </si>
+  <si>
+    <t>fansided</t>
+  </si>
+  <si>
+    <t>FRANZÖSISCH</t>
+  </si>
+  <si>
+    <t>https://cybersport.pl/</t>
+  </si>
+  <si>
+    <t>https://www.esportmaniacos.com/category/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://fortnite.fans/category/noticias/league-of-legends/</t>
+  </si>
+  <si>
+    <t>http://culturageek.com.ar/?s=league+of+legends</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/noticias/videojuegos</t>
+  </si>
+  <si>
+    <t>https://digistatement.com/gaming/</t>
+  </si>
+  <si>
+    <t>https://esportmania.pl/league-of-legends</t>
+  </si>
+  <si>
+    <t>https://esport1.hu/news/LeagueofLegends</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Ungarn</t>
+  </si>
+  <si>
+    <t>https://www.lafm.com.co/etiquetas/league-legends</t>
+  </si>
+  <si>
+    <t>https://atomix.vg/categoria/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://libero.pe/tag/league-of-legends</t>
+  </si>
+  <si>
+    <t>https://www.maisesports.com.br/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://bolavip.com/league-of-legends-t18191</t>
+  </si>
+  <si>
+    <t>https://www.eurogamer.it/games/league-legends</t>
+  </si>
+  <si>
+    <t>Italien</t>
+  </si>
+  <si>
+    <t>https://www.larazon.es/tags/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://calvinayre.com/tag/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://noticiasvideojuegos.com/category/noticias-lol/</t>
+  </si>
+  <si>
+    <t>https://www.marca.com/esports/league-of-legends.html</t>
+  </si>
+  <si>
+    <t>https://libero.pe/tag/esports</t>
+  </si>
+  <si>
+    <t>https://www.pcgamer.com/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://esports.xataka.com/tag/league-of-legends</t>
+  </si>
+  <si>
+    <t>https://www.dbltap.com/leagues/league-of-legends</t>
+  </si>
+  <si>
+    <t>https://esports.eldesmarque.com/etiqueta/clash</t>
+  </si>
+  <si>
+    <t>https://www.pcgamesn.com/league-of-legends</t>
+  </si>
+  <si>
+    <t>https://www.beahero.gg/tag/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://www.denofgeek.com/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://win.gg/lol</t>
+  </si>
+  <si>
+    <t>https://www.millenium.us.org/games/game-18</t>
+  </si>
+  <si>
+    <t>https://www.dailyesports.gg/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://tec.mx/es/noticias/busqueda?keys=league%20of%20legends</t>
+  </si>
+  <si>
+    <t>https://www.oficinadanet.com.br/games?pagina=8</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>https://www.pichauarena.com.br/category/lol/</t>
+  </si>
+  <si>
+    <t>https://www.express.co.uk/entertainment/gaming</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/gaming/</t>
+  </si>
+  <si>
+    <t>https://comicbook.com/category/riot-games/</t>
+  </si>
+  <si>
+    <t>https://gaming.gentside.com/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://www.breakflip.com/fr/league-of-legends</t>
+  </si>
+  <si>
+    <t>https://www.team-aaa.com/fr/portal/league-of-legends</t>
+  </si>
+  <si>
+    <t>http://www.gameblog.fr/jeux/2232_league-of-legends/news/</t>
+  </si>
+  <si>
+    <t>https://www.theverge.com/esports</t>
+  </si>
+  <si>
+    <t>https://www.altchar.com/guides</t>
+  </si>
+  <si>
+    <t>https://esportsinsider.com/category/esports-titles/moba/lol/</t>
+  </si>
+  <si>
+    <t>https://www.ingame.de/news/</t>
+  </si>
+  <si>
+    <t>https://gamerant.com/search/league%20of%20legends/</t>
+  </si>
+  <si>
+    <t>https://www.draftkings.com/playbook/lol-sports?page=2</t>
+  </si>
+  <si>
+    <t>https://www.fanatik.com.tr/arama?q=league%20of%20legends</t>
+  </si>
+  <si>
+    <t>türkisch</t>
+  </si>
+  <si>
+    <t>https://game-dna.de/page/2/?s=league+of+legends</t>
+  </si>
+  <si>
+    <t>https://www.ngl.one/de_DE/News?game[]=37</t>
+  </si>
+  <si>
+    <t>https://www.gamestar.de/spiele/league-of-legends,5504.html</t>
+  </si>
+  <si>
+    <t>https://www.bild.de/spiele/spiele-news/spiele-news/fuer-handys-und-konsolen-league-of-legends-wird-mobil-65375186.bild.html</t>
+  </si>
+  <si>
+    <t>https://www.nau.ch/news/games</t>
+  </si>
+  <si>
+    <t>https://www.buffed.de/League-of-Legends-Spiel-11721/News/</t>
+  </si>
+  <si>
+    <t>https://de.ign.com/league-of-legends?page=1&amp;article=1</t>
+  </si>
+  <si>
+    <t>https://www.gamers.de/tag/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://www.kicker.de/lol/startseite</t>
+  </si>
+  <si>
+    <t>https://www.pixel-magazin.de/tag/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://www.giga.de/spiele/league-of-legends-lol/</t>
+  </si>
+  <si>
+    <t>https://www.netzwelt.de/league-of-legends/index.html</t>
+  </si>
+  <si>
+    <t>https://www.readmore.de/?s=League+of+Legends</t>
+  </si>
+  <si>
+    <t>https://brief.pl/tag/esports/</t>
+  </si>
+  <si>
+    <t>https://www.sportskeeda.com/esports/league-of-legends</t>
+  </si>
+  <si>
+    <t>https://www.redbull.com/int-en/league-of-legends-clash-interview-riot-games</t>
+  </si>
+  <si>
+    <t>https://www.vigamusmagazine.com/tag/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://www.computerbase.de/thema/games/</t>
+  </si>
+  <si>
+    <t>http://www.5mid.com/etiket/clash</t>
+  </si>
+  <si>
+    <t>https://vs.com.br/artigo/lol-projeto-f-e-o-possivel-rpg-da-riot-games</t>
+  </si>
+  <si>
+    <t>brazil</t>
+  </si>
+  <si>
+    <t>https://www.techtudo.com.br/tudo-sobre/league-of-legends.html</t>
+  </si>
+  <si>
+    <t>https://www.riftherald.com/latest-news</t>
+  </si>
+  <si>
+    <t>https://geektyrant.com/?tag=League+of+Legends</t>
+  </si>
+  <si>
+    <t>https://thegamehaus.com/category/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://arenaesports.com.br/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://www.dailymail.co.uk/sport/esports/article-5735617/League-Legends-Clash-guide-does-work-rewards-more.html</t>
+  </si>
+  <si>
+    <t>https://teknodiot.com/etiket/league-of-legends</t>
+  </si>
+  <si>
+    <t>https://www.turkmmo.com/etiket/league-of-legends</t>
+  </si>
+  <si>
+    <t>https://www.goha.ru/news</t>
+  </si>
+  <si>
+    <t>russisch</t>
+  </si>
+  <si>
+    <t>https://www.powned.it/?filter=league-of-legends</t>
+  </si>
+  <si>
+    <t>https://www.esportsclub.nl/tag/league-of-legends</t>
+  </si>
+  <si>
+    <t>holland</t>
+  </si>
+  <si>
+    <t>http://mmorpgbr.com.br/league-of-legends-esta-completando-10-anos-de-lancamento-com-8-milhoes-de-players-ativos-diariamente/</t>
+  </si>
+  <si>
+    <t>https://gamehall.com.br/tag/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://www.leak.pt/league-of-legends-faz-10-anos-mas-as-surpresas-continuam/</t>
+  </si>
+  <si>
+    <t>portugal</t>
+  </si>
+  <si>
+    <t>https://www.voxel.com.br/jogo/league-of-legends</t>
+  </si>
+  <si>
+    <t>https://vs.com.br/league-of-legends</t>
+  </si>
+  <si>
+    <t>https://theclutch.com.br/league-of-legends/lol-clash-testes-proxima-semana/</t>
+  </si>
+  <si>
+    <t>https://esport1.hu/news/leagueoflegends</t>
+  </si>
+  <si>
+    <t>ungarn</t>
+  </si>
+  <si>
+    <t>https://www.gaming-grounds.de/esports/</t>
+  </si>
+  <si>
+    <t>https://notagamer.net/match-analysis/</t>
+  </si>
+  <si>
+    <t>https://holatelcel.com/category/esports/</t>
+  </si>
+  <si>
+    <t>https://l2pbomb.com/league-of-legends/league-of-legends-news/</t>
+  </si>
+  <si>
+    <t>https://www.computerbild.de/artikel/cbs-News-PC-League-of-Legends-Neue-Inhalte-2020-16313403.html</t>
+  </si>
+  <si>
+    <t>https://www.metabomb.net/leagueoflegends</t>
+  </si>
+  <si>
+    <t>https://www.summonersheaven.de/letzte-chance-du-suchst-noch-mates-fuer-dein-clash-team/</t>
+  </si>
+  <si>
+    <t>http://coin-drop.com/league-of-legends-introduces-clash-the-tournament-mode-for-everyday-players/</t>
+  </si>
+  <si>
+    <t>https://rankedboost.com/league-of-legends/competitive/</t>
+  </si>
+  <si>
+    <t>https://playerbros.com/riot-games-clash-ile-ilgili-tum-sorulara-yonelik-aciklama-yapti/</t>
+  </si>
+  <si>
+    <t>https://www.gamexnow.com/category/espor-haberleri/lol-espor/</t>
+  </si>
+  <si>
+    <t>digistatement</t>
+  </si>
+  <si>
+    <t>calvinayre</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>esportsinsider</t>
+  </si>
+  <si>
+    <t>gamerant</t>
+  </si>
+  <si>
+    <t>estnn</t>
+  </si>
+  <si>
+    <t>geektyrant</t>
+  </si>
+  <si>
+    <t>thegamehaus</t>
+  </si>
+  <si>
+    <t>notagamer</t>
+  </si>
+  <si>
+    <t>l2pbomb</t>
+  </si>
+  <si>
+    <t>coin-drop</t>
+  </si>
+  <si>
+    <t>pcgamer</t>
+  </si>
+  <si>
+    <t>dbltap</t>
+  </si>
+  <si>
+    <t>pcgamesn</t>
+  </si>
+  <si>
+    <t>denofgeek</t>
+  </si>
+  <si>
+    <t>dailyesports</t>
+  </si>
+  <si>
+    <t>theverge</t>
+  </si>
+  <si>
+    <t>altchar</t>
+  </si>
+  <si>
+    <t>draftkings</t>
+  </si>
+  <si>
+    <t>sportskeeda</t>
+  </si>
+  <si>
+    <t>redbull</t>
+  </si>
+  <si>
+    <t>computerbase</t>
+  </si>
+  <si>
+    <t>riftherald</t>
+  </si>
+  <si>
+    <t>metabomb</t>
+  </si>
+  <si>
+    <t>dailymail</t>
+  </si>
+  <si>
+    <t>millenium</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>ingame</t>
+  </si>
+  <si>
+    <t>ngl</t>
+  </si>
+  <si>
+    <t>nau</t>
+  </si>
+  <si>
+    <t>buffed</t>
+  </si>
+  <si>
+    <t>ign</t>
+  </si>
+  <si>
+    <t>gamers</t>
+  </si>
+  <si>
+    <t>kicker</t>
+  </si>
+  <si>
+    <t>pixel-magazin</t>
+  </si>
+  <si>
+    <t>giga</t>
+  </si>
+  <si>
+    <t>readmore</t>
+  </si>
+  <si>
+    <t>gaming-grounds</t>
+  </si>
+  <si>
+    <t>summonersheaven</t>
+  </si>
+  <si>
+    <t>game-dna</t>
+  </si>
+  <si>
+    <t>rankedboost</t>
+  </si>
+  <si>
+    <t>gamestar</t>
+  </si>
+  <si>
+    <t>netzwelt</t>
+  </si>
+  <si>
+    <t>computerbild</t>
+  </si>
+  <si>
+    <t>bild</t>
+  </si>
+  <si>
+    <t>esportsmaniacos</t>
+  </si>
+  <si>
+    <t>eltiemspo</t>
+  </si>
+  <si>
+    <t>larazosn</t>
+  </si>
+  <si>
+    <t>xastaka</t>
+  </si>
+  <si>
+    <t>elsdesmarque</t>
+  </si>
+  <si>
+    <t>beaherso</t>
+  </si>
+  <si>
+    <t>infobase</t>
+  </si>
+  <si>
+    <t>vigamussmagazine</t>
+  </si>
+  <si>
+    <t>fortnite</t>
+  </si>
+  <si>
+    <t>culturageek</t>
+  </si>
+  <si>
+    <t>bolavip</t>
+  </si>
+  <si>
+    <t>tec</t>
+  </si>
+  <si>
+    <t>lafm</t>
+  </si>
+  <si>
+    <t>maisesports</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>atomix</t>
+  </si>
+  <si>
+    <t>libero</t>
+  </si>
+  <si>
+    <t>noticiasvideojuegos</t>
+  </si>
+  <si>
+    <t>holatelcel</t>
+  </si>
+  <si>
+    <t>esportsmania</t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>gaming.gentside</t>
+  </si>
+  <si>
+    <t>breakflip</t>
+  </si>
+  <si>
+    <t>team-aaa</t>
+  </si>
+  <si>
+    <t>gameblog</t>
+  </si>
+  <si>
+    <t>esports1</t>
+  </si>
+  <si>
+    <t>eurogamer</t>
+  </si>
+  <si>
+    <t>oficinadanet</t>
+  </si>
+  <si>
+    <t>pichauarena</t>
+  </si>
+  <si>
+    <t>fanatik</t>
+  </si>
+  <si>
+    <t>techtudo</t>
+  </si>
+  <si>
+    <t>turkmmo</t>
+  </si>
+  <si>
+    <t>powned</t>
+  </si>
+  <si>
+    <t>esportsclub</t>
+  </si>
+  <si>
+    <t>leak</t>
+  </si>
+  <si>
+    <t>voxel</t>
+  </si>
+  <si>
+    <t>gamexnow</t>
+  </si>
+  <si>
+    <t>5mid</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>arenaesports</t>
+  </si>
+  <si>
+    <t>teknodiot</t>
+  </si>
+  <si>
+    <t>goha</t>
+  </si>
+  <si>
+    <t>mmorpgbr</t>
+  </si>
+  <si>
+    <t>gamehall</t>
+  </si>
+  <si>
+    <t>theclutch</t>
+  </si>
+  <si>
+    <t>playerbros</t>
+  </si>
+  <si>
+    <t>ludwigsburg</t>
+  </si>
+  <si>
+    <t>https://twitter.com/joshetyler</t>
+  </si>
+  <si>
+    <t>Writer 1</t>
+  </si>
+  <si>
+    <t>Writer 2</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Benjongalong</t>
+  </si>
+  <si>
+    <t>https://twitter.com/BlogOfLOL</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SSJSuntastic</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>SSJSuntastic@nerfplz.com</t>
+  </si>
+  <si>
+    <t>https://twitter.com/theriftherald</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/users/Julia%2520Lee</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/users/Shea%2520%2522Eclipse%2522%2520McCracken</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/users/Cass%2520Marshall</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/users/Austen%2520Goslin</t>
+  </si>
+  <si>
+    <t>Writer 3</t>
+  </si>
+  <si>
+    <t>Writer 4</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ESTNN</t>
+  </si>
+  <si>
+    <t>info@estnn.com &lt;info@estnn.com&gt;;</t>
+  </si>
+  <si>
+    <t>harrisonanthonygiza@gmail.com</t>
+  </si>
+  <si>
+    <t>David@geekmandem.com</t>
+  </si>
+  <si>
+    <t>Twitter @GhandiLoL;bsturak1@verizon.net</t>
+  </si>
+  <si>
+    <t>Twitter: @Manster415;mdgomezprieto@gmail.com</t>
+  </si>
+  <si>
+    <t>Writer 5</t>
+  </si>
+  <si>
+    <t>y.custodio@outlook.com;  @yBlazin</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lolnewssite/</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>kein kontaktformular</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/LoLAcademy</t>
+  </si>
+  <si>
+    <t>https://www.unrankedsmurfs.com/help</t>
+  </si>
+  <si>
+    <t>https://www.boostroyal.de/contact</t>
+  </si>
+  <si>
+    <t>https://twitter.com/liquid_legends</t>
+  </si>
+  <si>
+    <t>von TL</t>
+  </si>
+  <si>
+    <t>Press@Dexerto.com</t>
+  </si>
+  <si>
+    <t>https://twitter.com/GosuGamersLoL</t>
+  </si>
+  <si>
+    <t>hello@gosumedia.net</t>
+  </si>
+  <si>
+    <t>hello@thescore.com</t>
+  </si>
+  <si>
+    <t>https://gamersdecide.com/pc-games/league-legends</t>
+  </si>
+  <si>
+    <t>https://www.bolgegundem.com/lol-urf-ne-zaman-gelecek-2020-lol-urf-modu-nedir-lol-urf-modu-nasil-girilir-1050472h.htm</t>
+  </si>
+  <si>
+    <t>https://www.connectesport.com/category/league-of-legends/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +985,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -305,10 +1025,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -623,432 +1350,1710 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ECA474-D700-44CE-9C5A-E8E903874F93}">
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{69D2AB86-E206-4B3C-AB3F-367E8EEDA889}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{CFA8A561-FBBF-4569-AD95-8D69F2DD535C}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{D331704C-B898-442F-8E9C-6091E528C29B}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{9DE7D3B8-002E-4380-BA65-FDC4ED8DF702}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{45A1360A-145D-4AB0-AE92-7DF71B895747}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{C8D4AC68-7BD3-45BF-B17E-B5BE428AD5A0}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{0CFBC615-C740-490A-8422-2D6F0BC40294}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{B404EB5B-69F7-43A3-A159-594CB67FD9A3}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{B0073769-F673-4D9F-9B04-3F918A46DA1A}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{5D730E0E-9E72-4A71-BF55-2AECDF320411}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{2E844E3A-65E1-4E4E-86D9-63313D5096E8}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{81E10B95-9D1D-413F-9F91-846AD856F95D}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{64F00937-D8EC-419A-81B9-9CCFE399226A}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{F2F29277-2865-4679-9006-AF1023389A84}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{BC9D82F6-2C2D-494C-AFDC-EE745263F1E2}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{1703175B-C48C-42FD-B90A-CAB707F7B720}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{DA396028-57F8-4AA3-859D-DD9432B89FE7}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{5C21957E-B7E7-4B06-96A3-9AFFE42D494C}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{798E71D7-C956-414D-A058-1C77DED0F463}"/>
+    <hyperlink ref="B28" r:id="rId20" xr:uid="{008DEA29-176B-4944-B37A-FA3D476ED189}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{A8F44F86-2E32-463D-9EA1-6CCD8829BFB5}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{EF1A03CB-B135-4874-966C-96DDB451A714}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{6DF73651-AD21-4578-8968-9E37E31646D8}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{B53175D5-32B1-47F6-B9C0-D9737AE9737D}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{3A20468C-3362-4CF0-91DD-208113E36C64}"/>
+    <hyperlink ref="B29" r:id="rId26" xr:uid="{F91799B8-BF28-4C18-8C8D-B744D258744E}"/>
+    <hyperlink ref="B30" r:id="rId27" xr:uid="{59976798-38BB-4C3F-A96B-234CDAE4F5C3}"/>
+    <hyperlink ref="B31" r:id="rId28" xr:uid="{734C7D2F-C09A-4466-B027-2F125BFF11AB}"/>
+    <hyperlink ref="B32" r:id="rId29" xr:uid="{4FF9DF04-D8CC-47D1-877B-ED17503510FE}"/>
+    <hyperlink ref="B33" r:id="rId30" xr:uid="{1961BB1D-44CC-4F56-A4DD-E452A95B11B9}"/>
+    <hyperlink ref="B34" r:id="rId31" xr:uid="{913E3E7C-CB26-401A-BC5E-1BCA8AA800E0}"/>
+    <hyperlink ref="B35" r:id="rId32" xr:uid="{F442F031-2940-4091-B2D9-3A160D939EF3}"/>
+    <hyperlink ref="B36" r:id="rId33" xr:uid="{8A17E9E2-4731-41C9-B869-29A912A11EE5}"/>
+    <hyperlink ref="B37" r:id="rId34" xr:uid="{B3B4FDDE-6A7C-4E8B-B470-AEC817C9097E}"/>
+    <hyperlink ref="B38" r:id="rId35" xr:uid="{40182CCB-8AFC-458F-A5E3-DDBC894A7698}"/>
+    <hyperlink ref="B39" r:id="rId36" xr:uid="{2F518175-2CDE-4877-9A38-D7A5484DFA6B}"/>
+    <hyperlink ref="B40" r:id="rId37" xr:uid="{C7BC2CA5-79A9-4030-A641-1F5777095360}"/>
+    <hyperlink ref="B41" r:id="rId38" xr:uid="{C6C1D8CB-8249-4333-BFBE-1BD32EED3C19}"/>
+    <hyperlink ref="B42" r:id="rId39" xr:uid="{7510B843-0144-4DA4-8920-894AD1BFE392}"/>
+    <hyperlink ref="B43" r:id="rId40" xr:uid="{2814156B-EC0A-4204-AEED-01AB874EA569}"/>
+    <hyperlink ref="B44" r:id="rId41" xr:uid="{7B7BA570-E042-4029-B388-50556E02BA41}"/>
+    <hyperlink ref="B45" r:id="rId42" xr:uid="{BA09AE86-5EC9-4510-8390-65925E76CC51}"/>
+    <hyperlink ref="B46" r:id="rId43" xr:uid="{60936D04-DEA4-4CAA-9872-69880629389B}"/>
+    <hyperlink ref="B47" r:id="rId44" xr:uid="{72A3A922-244C-4DB3-98DF-1CBBAAA9FDD5}"/>
+    <hyperlink ref="B48" r:id="rId45" xr:uid="{847BB4F2-2E2F-44CE-BE85-7A8F1704C057}"/>
+    <hyperlink ref="B49" r:id="rId46" xr:uid="{AF8055F0-A6BE-4C7C-8F09-2ECCB9BE661E}"/>
+    <hyperlink ref="B50" r:id="rId47" xr:uid="{FC3B3DFF-76D8-4CED-AD12-054FF5A54436}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{05CAB511-9C4A-4D74-B97E-3C31A2508DE9}"/>
+    <hyperlink ref="B52" r:id="rId49" xr:uid="{50D29A95-F3AE-4AEE-B4A4-E1E3D3500CD8}"/>
+    <hyperlink ref="B53" r:id="rId50" xr:uid="{9F366FE8-8E2E-461B-A792-B1AFC38261E8}"/>
+    <hyperlink ref="B54" r:id="rId51" xr:uid="{5E26FFE7-4D63-4624-8933-08088AB7686D}"/>
+    <hyperlink ref="G4" r:id="rId52" xr:uid="{0C62D461-B31E-4715-A9D6-E7E6284E441A}"/>
+    <hyperlink ref="H4" r:id="rId53" xr:uid="{9FE41338-BABB-452D-8D13-4B16795DD298}"/>
+    <hyperlink ref="F4" r:id="rId54" xr:uid="{21E76445-EF84-44D9-93B9-6FDBB23F206B}"/>
+    <hyperlink ref="F5" r:id="rId55" xr:uid="{9D315B34-C957-415C-BEDE-E8EF0A30B69C}"/>
+    <hyperlink ref="E5" r:id="rId56" xr:uid="{D9A5620F-7C89-43FB-A50F-CAD41383EBE4}"/>
+    <hyperlink ref="F6" r:id="rId57" xr:uid="{75EC96BC-F34E-44DB-8AD9-84F9EAA02266}"/>
+    <hyperlink ref="G6" r:id="rId58" xr:uid="{68C76C5C-29E3-40F4-A271-49AE0134E4B8}"/>
+    <hyperlink ref="H6" r:id="rId59" xr:uid="{5F0A209A-F51A-4BD3-8512-BEC2C9BA0719}"/>
+    <hyperlink ref="I6" r:id="rId60" xr:uid="{38DD9100-E99A-439F-A8C4-CF7872CA6F12}"/>
+    <hyperlink ref="J6" r:id="rId61" xr:uid="{04706953-2CA5-4008-958E-F916E2D50668}"/>
+    <hyperlink ref="F7" r:id="rId62" xr:uid="{2E3D6222-1911-40A3-86FE-F09ABEA70AD9}"/>
+    <hyperlink ref="H7" r:id="rId63" xr:uid="{C8BF03BB-F01E-41C8-A549-1B396EF53947}"/>
+    <hyperlink ref="J7" r:id="rId64" xr:uid="{B5B0C88E-244E-4CCA-9CE1-2444072C99A2}"/>
+    <hyperlink ref="K7" r:id="rId65" xr:uid="{69D6B65F-493A-45EF-B2AA-35C3B1EEF4E0}"/>
+    <hyperlink ref="F8" r:id="rId66" xr:uid="{70047684-0486-42AE-99EE-D57C7713EAF4}"/>
+    <hyperlink ref="F11" r:id="rId67" xr:uid="{22DD313E-1012-49E2-9755-0CCC92AD3B20}"/>
+    <hyperlink ref="F12" r:id="rId68" xr:uid="{467BFACB-C349-466A-A821-33E648489DBE}"/>
+    <hyperlink ref="F10" r:id="rId69" xr:uid="{8EB2FE83-B4D1-48F7-82DF-1D20B3EF3FE6}"/>
+    <hyperlink ref="F14" r:id="rId70" xr:uid="{CE3BCAA1-C9DC-4C40-B194-02AAFA9A64DB}"/>
+    <hyperlink ref="E15" r:id="rId71" xr:uid="{CB783B1C-00DD-428F-A2BE-50D27922D805}"/>
+    <hyperlink ref="E16" r:id="rId72" xr:uid="{CA749BDA-6BBD-4965-B870-4A6E51BB031E}"/>
+    <hyperlink ref="F16" r:id="rId73" xr:uid="{314154A9-7EF3-4B86-A52C-E6D57BC99047}"/>
+    <hyperlink ref="E17" r:id="rId74" xr:uid="{B1BF98D1-86B5-4BA6-AE48-AAE94D8F9F62}"/>
+    <hyperlink ref="B55" r:id="rId75" xr:uid="{F4DBF6A6-F442-4154-9E97-601A977F8D06}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId76"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D37F0E-1DAF-48EC-AFF2-DDEFB319F2BD}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{945EBB50-0656-4E9D-B32F-B5E0CDD9D388}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{6E38E2DD-BF09-493F-83EC-262FB825DBED}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{487CD8BC-0AA6-4623-889E-1AA77E33FD8B}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{C97EE833-0420-431E-B858-1FEFC2550E06}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{91736323-C3C5-498C-80EF-2C518F730601}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{2D099EE3-56C2-45F1-884C-E9E19AA83FF6}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{13C08546-3E58-4567-9D67-2CAC212D44B0}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{59015833-7A07-4199-A47D-AF0A6683A589}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{F8C25262-4B40-49D2-9403-C8B6A1967BDF}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{1F9849D3-84B4-461A-B60E-40650D23B800}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{8E8832B6-0F29-47BA-A107-92CEA5A56FDF}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{35FCE8DF-3657-4C2C-9D3E-ED11A53BA2F4}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{73E3CA92-02DE-44DF-AEBF-E0ED3D8B45D9}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{CE22AD1F-1587-4C2B-8816-99332761C222}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{AA185EB7-C3A2-45D5-B9FB-EFE7016BF8FA}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{14AE94EF-D6FF-4E4C-A11C-70E965EB4322}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{CA438EC5-CA45-406C-8D0F-B9D6A6FFF2A6}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{F078B18F-1EA5-48A5-8605-7533126B65A0}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{A0071E15-1C5E-4477-BB2A-9C58EC39A2E5}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{B418AD9B-9159-408B-9653-00921DDDF037}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{CC8E4AF0-AFB6-45C9-A5A3-BFEF2816BA87}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{35D49F5E-BD49-4358-B065-CDF118D5C287}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{E324BF03-F4AE-4FE2-AC73-67256BE61791}"/>
+    <hyperlink ref="B27" r:id="rId24" xr:uid="{A67F81AE-F08E-47B7-9816-2A235AC29ACE}"/>
+    <hyperlink ref="B28" r:id="rId25" xr:uid="{BB7FC3D5-61F2-42D1-A3D0-D658E66DD7A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C41F31-489D-486F-A922-B1BB4C48EE1F}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{71B1F747-4291-4D7A-975E-6423B95F9F9A}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{05D2BB33-E3D9-4B68-B706-0EE8F9F73408}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{F445750A-0104-4B9F-AEE1-5F545AA31335}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{13D1CACD-50FF-4593-B583-3FBF7B9EC14D}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{BDA48A6B-B3DB-40FE-B669-6079DBCFC4E9}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{36FBBE2B-6974-45B8-B1EF-05B9E3D200A9}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{B8BF5A5A-11FD-4C9F-B178-8CD5213E2DFB}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{FEC864D0-B354-4F40-8573-FA82342282C9}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{DFD84415-AA31-443E-A464-83076F7F1E1C}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{D0678181-7F31-4C17-BC75-C12CC970028A}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{CBFCA17C-D378-47B6-B3DB-8BAE0501629F}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{212504FE-9A68-4F58-B9D2-B10266A97747}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{FF342BC7-24DA-4744-9DCC-E0469D90DC26}"/>
+    <hyperlink ref="B21" r:id="rId14" xr:uid="{4CCDFEC5-38D8-430A-93CB-FA0D4F33FEDF}"/>
+    <hyperlink ref="B22" r:id="rId15" xr:uid="{84136819-1E14-4E6D-B9D4-1A0E0F5FC146}"/>
+    <hyperlink ref="B14" r:id="rId16" xr:uid="{2A7945E0-2EDB-41B4-9399-70333592FEBC}"/>
+    <hyperlink ref="B15" r:id="rId17" xr:uid="{1BC720BC-FDC6-4D8F-BF70-A63BB2707FA5}"/>
+    <hyperlink ref="B17" r:id="rId18" xr:uid="{8653321C-E242-42DB-B761-C6802EA65FFE}"/>
+    <hyperlink ref="B18" r:id="rId19" xr:uid="{D96DCA1B-2965-4738-BEDC-416D7AB8C013}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{BFA3A2C0-C1AA-4CD1-ACEE-B34852E27A44}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{9FA6EC67-2093-45B0-A1C3-4D879B495664}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{857A2F20-30D3-40F0-9EB9-52E364D7A39C}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{05EE124B-6F3C-46EF-913C-0AFEC17E9521}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A5A6D5-8A86-46D4-91BD-964C68D267D7}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{8F044089-3011-4BA9-979B-29F303F244F2}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{EDF753A0-A71E-477A-8FC7-1D6FC248FB64}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{DB91B37D-8647-412B-A91D-D5021B127585}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{9884F0BE-147A-44DC-BB28-1194D9A5BB99}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7209A79F-DF24-456D-92A7-CE4ADA1A7FAA}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{8D809E7C-C314-402D-B717-8AF621F5D400}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{C02F3ACA-343D-4C4E-8B9B-799DF75017C4}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{158D6393-46C9-4141-96A5-D906432339E7}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{2A764EC5-3D40-4DB6-B71C-F04F63D52550}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{74733576-EA7A-4FFD-92C5-0EC89206F5FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8923E2-63F3-49B9-9119-687B22F30048}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{87D31197-BBBE-4972-B1E9-C8A39ABDB531}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{20B29E88-965D-42C6-B280-DBA1E566C344}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{8BA7C87E-7D3F-49C1-AFE1-DAEC183CE96F}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{3810693F-EC7A-4CA0-AE11-60389A8EF079}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{01B31DCC-0482-4B94-BA02-5040831B3040}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{B0216529-3A9D-4247-B6C3-386BF72FDED5}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{A2F3AA6C-82C0-4654-B006-4AE783315C6B}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{AC3FFF07-FBA2-4E78-89CD-C4A0837536BC}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{450A30D8-262A-4E92-A057-3A2E8AC0B18E}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{007088B1-3735-4C91-A628-E454A4F37F92}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{FE9FE7D9-5230-4B8F-921C-F4AFC0722A26}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{C9128C9C-7EC1-4937-8455-5D9BABA65C1C}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{E1B07301-0852-42F3-90C0-4AE8DC2225BD}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{B9C6011B-B31F-4254-81B7-2BA0BA946C02}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{645737ED-325F-46CA-8FF3-C8370BB6F6CF}"/>
-    <hyperlink ref="C27" r:id="rId26" location=".eFVsurXciz" xr:uid="{89F588CD-D142-4AED-A9E9-7F1AE58DEE13}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{4F8F5E85-EDEE-489A-8118-8BAE16B81468}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{619546BC-B778-4C2E-8FD2-2BA4795DC328}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{7CCF8493-610C-4976-BA77-5E6B685D6E8C}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{DACD9C35-D7F1-4A74-A866-63C797CC3F70}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{8FBF07EB-D6BC-4F9F-9597-CF0919985C36}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{62B09FBC-314A-4DB3-8925-A995B378A743}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{29305264-03E6-4364-9482-0A2C2A106272}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{DFC9AD17-EC43-4449-88EC-EF8B90A3F604}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{209D6D27-BAFE-422C-B588-EFD509FDC697}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{5A853191-6105-4489-A6DE-58DC0A419751}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{DD0EA7EC-7CD3-4FA6-8BDC-F75289685085}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{25FC8B18-D909-40BF-BC7E-2C34045C9F35}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{F6D93432-C818-4DDD-B589-1B42AE3BCF4E}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{6640D4A6-F438-41F9-9EC3-0FAC351AD6B9}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{3098B851-B247-4F8E-9928-BB10F0A4C22E}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{DE781D45-EE85-43B9-8C6F-7025FD594845}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{BE310ACF-1B46-4E25-AAB2-36B13EBFA0E1}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{2854E832-751A-4981-990D-BECE1EFA52FC}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{90A7DF62-8A1C-4572-A97A-FA64AA9944A0}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{CDEF2EAF-097E-4D92-ABE8-D0FC686F0B95}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{E1A2592E-6D22-4967-94BD-88B99D57B0CB}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{0AE14F88-5D81-45CD-BBD0-88C4A097A957}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{A98C767C-518E-4A87-A10F-DDB68FD5502B}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{C5AD8EFA-3225-4BAB-A8B2-4914A3D8216F}"/>
+    <hyperlink ref="C22" r:id="rId19" xr:uid="{05E19CD9-C360-467E-A9F0-63543DBF8AE3}"/>
+    <hyperlink ref="C23" r:id="rId20" xr:uid="{74391DA8-5635-4AFA-96A3-4AD62875B636}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{D598B20A-AB38-4501-A5EB-1A7D688B291E}"/>
+    <hyperlink ref="C25" r:id="rId22" xr:uid="{F39C7F35-9CF2-46A7-BA04-517A4B7C6A85}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{BB02FF29-9709-400F-ACC1-B00A6380851E}"/>
+    <hyperlink ref="C27" r:id="rId24" xr:uid="{A15AA879-5F16-4800-8855-631A995E79DC}"/>
+    <hyperlink ref="C28" r:id="rId25" xr:uid="{B676DED4-AFA6-49DB-99D7-E728EA80062A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId33"/>
 </worksheet>
 </file>
--- a/private/overview_blogs.xlsx
+++ b/private/overview_blogs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796BD4CE-B98C-40FD-945F-E3959E17D9C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E286CF1-8747-4E8C-BA0E-3B60158B95CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41205" yWindow="4170" windowWidth="21600" windowHeight="12735" tabRatio="483" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1755" windowWidth="29040" windowHeight="17640" tabRatio="483" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Englisch" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="442">
   <si>
     <t>Name</t>
   </si>
@@ -268,9 +268,6 @@
     <t>http://culturageek.com.ar/?s=league+of+legends</t>
   </si>
   <si>
-    <t>https://www.eltiempo.com/noticias/videojuegos</t>
-  </si>
-  <si>
     <t>https://digistatement.com/gaming/</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
     <t>Ungarn</t>
   </si>
   <si>
-    <t>https://www.lafm.com.co/etiquetas/league-legends</t>
-  </si>
-  <si>
     <t>https://atomix.vg/categoria/league-of-legends/</t>
   </si>
   <si>
@@ -316,12 +310,6 @@
     <t>https://noticiasvideojuegos.com/category/noticias-lol/</t>
   </si>
   <si>
-    <t>https://www.marca.com/esports/league-of-legends.html</t>
-  </si>
-  <si>
-    <t>https://libero.pe/tag/esports</t>
-  </si>
-  <si>
     <t>https://www.pcgamer.com/league-of-legends/</t>
   </si>
   <si>
@@ -352,9 +340,6 @@
     <t>https://www.dailyesports.gg/league-of-legends/</t>
   </si>
   <si>
-    <t>https://tec.mx/es/noticias/busqueda?keys=league%20of%20legends</t>
-  </si>
-  <si>
     <t>https://www.oficinadanet.com.br/games?pagina=8</t>
   </si>
   <si>
@@ -370,9 +355,6 @@
     <t>https://www.infobae.com/gaming/</t>
   </si>
   <si>
-    <t>https://comicbook.com/category/riot-games/</t>
-  </si>
-  <si>
     <t>https://gaming.gentside.com/league-of-legends/</t>
   </si>
   <si>
@@ -403,9 +385,6 @@
     <t>https://www.draftkings.com/playbook/lol-sports?page=2</t>
   </si>
   <si>
-    <t>https://www.fanatik.com.tr/arama?q=league%20of%20legends</t>
-  </si>
-  <si>
     <t>türkisch</t>
   </si>
   <si>
@@ -472,9 +451,6 @@
     <t>brazil</t>
   </si>
   <si>
-    <t>https://www.techtudo.com.br/tudo-sobre/league-of-legends.html</t>
-  </si>
-  <si>
     <t>https://www.riftherald.com/latest-news</t>
   </si>
   <si>
@@ -502,9 +478,6 @@
     <t>russisch</t>
   </si>
   <si>
-    <t>https://www.powned.it/?filter=league-of-legends</t>
-  </si>
-  <si>
     <t>https://www.esportsclub.nl/tag/league-of-legends</t>
   </si>
   <si>
@@ -526,18 +499,9 @@
     <t>https://www.voxel.com.br/jogo/league-of-legends</t>
   </si>
   <si>
-    <t>https://vs.com.br/league-of-legends</t>
-  </si>
-  <si>
     <t>https://theclutch.com.br/league-of-legends/lol-clash-testes-proxima-semana/</t>
   </si>
   <si>
-    <t>https://esport1.hu/news/leagueoflegends</t>
-  </si>
-  <si>
-    <t>ungarn</t>
-  </si>
-  <si>
     <t>https://www.gaming-grounds.de/esports/</t>
   </si>
   <si>
@@ -586,9 +550,6 @@
     <t>gamerant</t>
   </si>
   <si>
-    <t>estnn</t>
-  </si>
-  <si>
     <t>geektyrant</t>
   </si>
   <si>
@@ -709,9 +670,6 @@
     <t>esportsmaniacos</t>
   </si>
   <si>
-    <t>eltiemspo</t>
-  </si>
-  <si>
     <t>larazosn</t>
   </si>
   <si>
@@ -739,18 +697,9 @@
     <t>bolavip</t>
   </si>
   <si>
-    <t>tec</t>
-  </si>
-  <si>
-    <t>lafm</t>
-  </si>
-  <si>
     <t>maisesports</t>
   </si>
   <si>
-    <t>marca</t>
-  </si>
-  <si>
     <t>atomix</t>
   </si>
   <si>
@@ -793,12 +742,6 @@
     <t>pichauarena</t>
   </si>
   <si>
-    <t>fanatik</t>
-  </si>
-  <si>
-    <t>techtudo</t>
-  </si>
-  <si>
     <t>turkmmo</t>
   </si>
   <si>
@@ -955,10 +898,472 @@
     <t>https://gamersdecide.com/pc-games/league-legends</t>
   </si>
   <si>
-    <t>https://www.bolgegundem.com/lol-urf-ne-zaman-gelecek-2020-lol-urf-modu-nedir-lol-urf-modu-nasil-girilir-1050472h.htm</t>
-  </si>
-  <si>
     <t>https://www.connectesport.com/category/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://www.esporfix.com/tag/league-of-legends/</t>
+  </si>
+  <si>
+    <t>https://www.multiplayer.com.tr/league-of-legends-clash-sizleri-bekliyor/</t>
+  </si>
+  <si>
+    <t>https://gogomagazine.it/videogame/vanguard-valorant-anticheat-problemi-sicurezza-89894/</t>
+  </si>
+  <si>
+    <t>https://www.sporx.com/league-of-legends-clash-turnuvasi-ertelendi-SXHBQ709307SXQ</t>
+  </si>
+  <si>
+    <t>https://www.4players.de/4players.php/spielinfonews/Allgemein/15238/2187491/League_of_Legends-Riot_Games_stellt_Fahrplan_fuer_2020_hinsichtlich_geplanter_Entwicklungen_und_Inhalten_vor.html</t>
+  </si>
+  <si>
+    <t>https://www.softonic.com/articulos/juegos-multijugador-online-amigos-no-gamer</t>
+  </si>
+  <si>
+    <t>Andreas@dotesports.com</t>
+  </si>
+  <si>
+    <t>advertise@gamurs.com; corporate@gamurs.com; tips@dotesports.com</t>
+  </si>
+  <si>
+    <t>editor@comicbook.com</t>
+  </si>
+  <si>
+    <t>SUPPORT@NEWSWEEK.COM</t>
+  </si>
+  <si>
+    <t>Contribution@invenglobal.com</t>
+  </si>
+  <si>
+    <t>business@digistatement.com</t>
+  </si>
+  <si>
+    <t>webcontent@happygamer.com</t>
+  </si>
+  <si>
+    <t>https://calvinayre.com/ask-or-tell/</t>
+  </si>
+  <si>
+    <t>https://www.futureplc.com/contact/</t>
+  </si>
+  <si>
+    <t>helpdesk@dbltap.com</t>
+  </si>
+  <si>
+    <t>carrie.talbot@pcgamesn.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msullivan@denofgeek.com </t>
+  </si>
+  <si>
+    <t>help@win.gg</t>
+  </si>
+  <si>
+    <t>https://twitter.com/officialWINgg</t>
+  </si>
+  <si>
+    <t>https://www.millenium.us.org/contact</t>
+  </si>
+  <si>
+    <t>dailyesports@enthusiastgaming.com</t>
+  </si>
+  <si>
+    <t>liam.martin@reachplc.com</t>
+  </si>
+  <si>
+    <t>https://www.theverge.com/contact-the-verge</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AltCharGaming/</t>
+  </si>
+  <si>
+    <t>info@esportsinsider.com</t>
+  </si>
+  <si>
+    <t>https://gamerant.com/contact/</t>
+  </si>
+  <si>
+    <t>media@draftkings.com</t>
+  </si>
+  <si>
+    <t>https://www.sportskeeda.com/contact</t>
+  </si>
+  <si>
+    <t>https://www.redbull.com/int-en/energydrink/contact</t>
+  </si>
+  <si>
+    <t>redaktion@computerbase.de</t>
+  </si>
+  <si>
+    <t>https://www.riftherald.com/contact#tip</t>
+  </si>
+  <si>
+    <t>https://geektyrant.com/contact</t>
+  </si>
+  <si>
+    <t>https://thegamehaus.com/contact-us/</t>
+  </si>
+  <si>
+    <t>tips@dailymail.com</t>
+  </si>
+  <si>
+    <t>Den Link über Clash erwähnen von Matt Porter</t>
+  </si>
+  <si>
+    <t>https://notagamer.net/contact-us/</t>
+  </si>
+  <si>
+    <t>https://l2pbomb.com/contact-us/</t>
+  </si>
+  <si>
+    <t>https://www.metabomb.net/contact</t>
+  </si>
+  <si>
+    <t>support@rankedboost.com</t>
+  </si>
+  <si>
+    <t>newsbox@gamersdecide.com</t>
+  </si>
+  <si>
+    <t>gamersdecide</t>
+  </si>
+  <si>
+    <t>founders@coin-drop.com</t>
+  </si>
+  <si>
+    <t>kontakt@esports-ludwigsburg.de</t>
+  </si>
+  <si>
+    <t>tim.pommerenke@spiegel.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redaktion@derStandard.at </t>
+  </si>
+  <si>
+    <t>https://www.casino.org/de/nachrichten/esports-2019-millionenenschwere-preisgelder-und-ein-deutscher-weltmeister/</t>
+  </si>
+  <si>
+    <t>enquiries@casino.org</t>
+  </si>
+  <si>
+    <t>info@summoners-inn.de</t>
+  </si>
+  <si>
+    <t>https://mein-mmo.de/kontakt-mein-mmo/</t>
+  </si>
+  <si>
+    <t>https://www.sport1.de/unternehmen/kontakt</t>
+  </si>
+  <si>
+    <t>kontakt@inwave-media.de</t>
+  </si>
+  <si>
+    <t>feedback@ngl.one</t>
+  </si>
+  <si>
+    <t>info@pixel- magazin.de</t>
+  </si>
+  <si>
+    <t>https://www.kicker.de/kontakt</t>
+  </si>
+  <si>
+    <t>kontakt@jink.de</t>
+  </si>
+  <si>
+    <t>ign-news@webedia-group.de</t>
+  </si>
+  <si>
+    <t>redaktion@buffed.de</t>
+  </si>
+  <si>
+    <t>redaktion@nau.ch</t>
+  </si>
+  <si>
+    <t>https://www.bild.de/corporate-site/kontakt/bildchannel-home/kontakt-43829628.bild.html</t>
+  </si>
+  <si>
+    <t>https://www.gamestar.de/kontakt/</t>
+  </si>
+  <si>
+    <t>https://www.gaming-grounds.de/kontakt/</t>
+  </si>
+  <si>
+    <t>https://www.summonersheaven.de/kontakt/</t>
+  </si>
+  <si>
+    <t>4players</t>
+  </si>
+  <si>
+    <t>michael.krosta@4players.de</t>
+  </si>
+  <si>
+    <t>redaktion@computerbild.de</t>
+  </si>
+  <si>
+    <t>info@4players.de</t>
+  </si>
+  <si>
+    <t>https://www.netzwelt.de/presse.html</t>
+  </si>
+  <si>
+    <t>redaktion@giga.de</t>
+  </si>
+  <si>
+    <t>https://www.beahero.gg/tag/riot-games/</t>
+  </si>
+  <si>
+    <t>https://piunikaweb.com/2020/04/15/league-of-legends-patch-notes-out-for-update-v10-8/</t>
+  </si>
+  <si>
+    <t>admin@piunikaweb.web</t>
+  </si>
+  <si>
+    <t>https://www.naturalborngamers.it/league-of-legends-spiegazione-di-clash/</t>
+  </si>
+  <si>
+    <t>https://www.gazetaesportiva.com/esports/temporada-de-2020-do-lol-comeca-com-mais-modos-de-jogo/</t>
+  </si>
+  <si>
+    <t>https://3dnews.ru/969807</t>
+  </si>
+  <si>
+    <t>https://cyber.sports.ru/dota2/1079878993.html</t>
+  </si>
+  <si>
+    <t>https://youvteme.online/faq-chto-takoe-clash-v-league-of-legends/</t>
+  </si>
+  <si>
+    <t>piunikaweb</t>
+  </si>
+  <si>
+    <t>connectesport</t>
+  </si>
+  <si>
+    <t>softonic</t>
+  </si>
+  <si>
+    <t>contacto@movistaresports.com</t>
+  </si>
+  <si>
+    <t>esportmaniacos@gmail.com</t>
+  </si>
+  <si>
+    <t>http://culturageek.com.ar/contacto/</t>
+  </si>
+  <si>
+    <t>intaly</t>
+  </si>
+  <si>
+    <t>info@atomix.vg</t>
+  </si>
+  <si>
+    <t>renzo.silva@glr.pe</t>
+  </si>
+  <si>
+    <t>contato@maisesports.com.br</t>
+  </si>
+  <si>
+    <t>https://bolavip.com/info/contacto</t>
+  </si>
+  <si>
+    <t>atcliente@larazon.es</t>
+  </si>
+  <si>
+    <t>INFO@NOTICIASVIDEOJUEGOS.COM</t>
+  </si>
+  <si>
+    <t>prensa@esports.xataka.com</t>
+  </si>
+  <si>
+    <t>esports@eldesmarque.com</t>
+  </si>
+  <si>
+    <t>alles voll mit clash</t>
+  </si>
+  <si>
+    <t>Prensa@beahero.gg</t>
+  </si>
+  <si>
+    <t>servicio@telcel.com</t>
+  </si>
+  <si>
+    <t>contact@connectesport.com</t>
+  </si>
+  <si>
+    <t>info@softonic.com</t>
+  </si>
+  <si>
+    <t>DISCORD</t>
+  </si>
+  <si>
+    <t>https://how2play.pl/</t>
+  </si>
+  <si>
+    <t>how2play</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/League-of-Legends-Polska-Boop-448865349233950</t>
+  </si>
+  <si>
+    <t>kontakt@boop.pl</t>
+  </si>
+  <si>
+    <t>g.latka@eslgaming.com</t>
+  </si>
+  <si>
+    <t>redakcja@esportmania.pl</t>
+  </si>
+  <si>
+    <t>redakcja@brief.pl</t>
+  </si>
+  <si>
+    <t>http://www.jeuxvideo.com/contact.php</t>
+  </si>
+  <si>
+    <t>redaction@gentside.com</t>
+  </si>
+  <si>
+    <t>redaction@breakflip.com</t>
+  </si>
+  <si>
+    <t>yw@team-aaa.com</t>
+  </si>
+  <si>
+    <t>info@e-borealis.com</t>
+  </si>
+  <si>
+    <t>auf gameblog.fr verweisen</t>
+  </si>
+  <si>
+    <t>esporfix</t>
+  </si>
+  <si>
+    <t>multiplayer</t>
+  </si>
+  <si>
+    <t>sporx</t>
+  </si>
+  <si>
+    <t>beahero</t>
+  </si>
+  <si>
+    <t>naturalborngamers</t>
+  </si>
+  <si>
+    <t>youvteme</t>
+  </si>
+  <si>
+    <t>gogomagazine</t>
+  </si>
+  <si>
+    <t>3dnews</t>
+  </si>
+  <si>
+    <t>gaze</t>
+  </si>
+  <si>
+    <t>cyber.sports.ru</t>
+  </si>
+  <si>
+    <t>https://www.powned.it/</t>
+  </si>
+  <si>
+    <t>ben@esport1.hu</t>
+  </si>
+  <si>
+    <t>https://www.eurogamer.it/contact</t>
+  </si>
+  <si>
+    <t>https://www.esportsclub.nl/contact</t>
+  </si>
+  <si>
+    <t>release@oficinadanet.com.br</t>
+  </si>
+  <si>
+    <t>Max Alexandre</t>
+  </si>
+  <si>
+    <t>contact@5mid.com</t>
+  </si>
+  <si>
+    <t>versus@vs.com.br</t>
+  </si>
+  <si>
+    <t>contato@arenaesports.com.br</t>
+  </si>
+  <si>
+    <t>https://teknodiot.com/iletisim</t>
+  </si>
+  <si>
+    <t>https://www.turkmmo.com/iletisim</t>
+  </si>
+  <si>
+    <t>https://www.powned.it/chi-siamo/</t>
+  </si>
+  <si>
+    <t>http://mmorpgbr.com.br/contato/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GameHall/</t>
+  </si>
+  <si>
+    <t>eral@leak.pt</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/voxeloficial</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/theclutchesports</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Playerbros/</t>
+  </si>
+  <si>
+    <t>press@gamex.com.t ist</t>
+  </si>
+  <si>
+    <t>info@esporfix.com</t>
+  </si>
+  <si>
+    <t>İletişim@multiplayer.com.tr</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MultiplayerTV/</t>
+  </si>
+  <si>
+    <t>redazione@gogomagazine.it</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GogoMagazineIT/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sporxespor/</t>
+  </si>
+  <si>
+    <t>link erwähnen</t>
+  </si>
+  <si>
+    <t>Contacto@beahero.gg</t>
+  </si>
+  <si>
+    <t>gulizianico@hotmail.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nbgofficial</t>
+  </si>
+  <si>
+    <t>faleconosco@gazetaesportiva.com</t>
+  </si>
+  <si>
+    <t>news@3dnews.ru</t>
+  </si>
+  <si>
+    <t>support@sports.ru</t>
+  </si>
+  <si>
+    <t>Astra-novosti@mail.ru</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/VigamusMAG/</t>
   </si>
 </sst>
 </file>
@@ -1351,17 +1756,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ECA474-D700-44CE-9C5A-E8E903874F93}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
@@ -1376,640 +1781,754 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>290</v>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>276</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>274</v>
+        <v>258</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>285</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>292</v>
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>294</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>296</v>
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>298</v>
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>300</v>
+        <v>283</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G26" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>179</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>322</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>201</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>200</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>187</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>180</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>217</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
-        <v>304</v>
+        <v>285</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{69D2AB86-E206-4B3C-AB3F-367E8EEDA889}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{CFA8A561-FBBF-4569-AD95-8D69F2DD535C}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{D331704C-B898-442F-8E9C-6091E528C29B}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{9DE7D3B8-002E-4380-BA65-FDC4ED8DF702}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{45A1360A-145D-4AB0-AE92-7DF71B895747}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{C8D4AC68-7BD3-45BF-B17E-B5BE428AD5A0}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{0CFBC615-C740-490A-8422-2D6F0BC40294}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{B404EB5B-69F7-43A3-A159-594CB67FD9A3}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{B0073769-F673-4D9F-9B04-3F918A46DA1A}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{5D730E0E-9E72-4A71-BF55-2AECDF320411}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{2E844E3A-65E1-4E4E-86D9-63313D5096E8}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{81E10B95-9D1D-413F-9F91-846AD856F95D}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{64F00937-D8EC-419A-81B9-9CCFE399226A}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{F2F29277-2865-4679-9006-AF1023389A84}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{BC9D82F6-2C2D-494C-AFDC-EE745263F1E2}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{1703175B-C48C-42FD-B90A-CAB707F7B720}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{DA396028-57F8-4AA3-859D-DD9432B89FE7}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{5C21957E-B7E7-4B06-96A3-9AFFE42D494C}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{798E71D7-C956-414D-A058-1C77DED0F463}"/>
-    <hyperlink ref="B28" r:id="rId20" xr:uid="{008DEA29-176B-4944-B37A-FA3D476ED189}"/>
-    <hyperlink ref="B23" r:id="rId21" xr:uid="{A8F44F86-2E32-463D-9EA1-6CCD8829BFB5}"/>
-    <hyperlink ref="B24" r:id="rId22" xr:uid="{EF1A03CB-B135-4874-966C-96DDB451A714}"/>
-    <hyperlink ref="B25" r:id="rId23" xr:uid="{6DF73651-AD21-4578-8968-9E37E31646D8}"/>
-    <hyperlink ref="B26" r:id="rId24" xr:uid="{B53175D5-32B1-47F6-B9C0-D9737AE9737D}"/>
-    <hyperlink ref="B27" r:id="rId25" xr:uid="{3A20468C-3362-4CF0-91DD-208113E36C64}"/>
-    <hyperlink ref="B29" r:id="rId26" xr:uid="{F91799B8-BF28-4C18-8C8D-B744D258744E}"/>
-    <hyperlink ref="B30" r:id="rId27" xr:uid="{59976798-38BB-4C3F-A96B-234CDAE4F5C3}"/>
-    <hyperlink ref="B31" r:id="rId28" xr:uid="{734C7D2F-C09A-4466-B027-2F125BFF11AB}"/>
-    <hyperlink ref="B32" r:id="rId29" xr:uid="{4FF9DF04-D8CC-47D1-877B-ED17503510FE}"/>
-    <hyperlink ref="B33" r:id="rId30" xr:uid="{1961BB1D-44CC-4F56-A4DD-E452A95B11B9}"/>
-    <hyperlink ref="B34" r:id="rId31" xr:uid="{913E3E7C-CB26-401A-BC5E-1BCA8AA800E0}"/>
-    <hyperlink ref="B35" r:id="rId32" xr:uid="{F442F031-2940-4091-B2D9-3A160D939EF3}"/>
-    <hyperlink ref="B36" r:id="rId33" xr:uid="{8A17E9E2-4731-41C9-B869-29A912A11EE5}"/>
-    <hyperlink ref="B37" r:id="rId34" xr:uid="{B3B4FDDE-6A7C-4E8B-B470-AEC817C9097E}"/>
-    <hyperlink ref="B38" r:id="rId35" xr:uid="{40182CCB-8AFC-458F-A5E3-DDBC894A7698}"/>
-    <hyperlink ref="B39" r:id="rId36" xr:uid="{2F518175-2CDE-4877-9A38-D7A5484DFA6B}"/>
-    <hyperlink ref="B40" r:id="rId37" xr:uid="{C7BC2CA5-79A9-4030-A641-1F5777095360}"/>
-    <hyperlink ref="B41" r:id="rId38" xr:uid="{C6C1D8CB-8249-4333-BFBE-1BD32EED3C19}"/>
-    <hyperlink ref="B42" r:id="rId39" xr:uid="{7510B843-0144-4DA4-8920-894AD1BFE392}"/>
-    <hyperlink ref="B43" r:id="rId40" xr:uid="{2814156B-EC0A-4204-AEED-01AB874EA569}"/>
-    <hyperlink ref="B44" r:id="rId41" xr:uid="{7B7BA570-E042-4029-B388-50556E02BA41}"/>
-    <hyperlink ref="B45" r:id="rId42" xr:uid="{BA09AE86-5EC9-4510-8390-65925E76CC51}"/>
-    <hyperlink ref="B46" r:id="rId43" xr:uid="{60936D04-DEA4-4CAA-9872-69880629389B}"/>
-    <hyperlink ref="B47" r:id="rId44" xr:uid="{72A3A922-244C-4DB3-98DF-1CBBAAA9FDD5}"/>
-    <hyperlink ref="B48" r:id="rId45" xr:uid="{847BB4F2-2E2F-44CE-BE85-7A8F1704C057}"/>
-    <hyperlink ref="B49" r:id="rId46" xr:uid="{AF8055F0-A6BE-4C7C-8F09-2ECCB9BE661E}"/>
-    <hyperlink ref="B50" r:id="rId47" xr:uid="{FC3B3DFF-76D8-4CED-AD12-054FF5A54436}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{05CAB511-9C4A-4D74-B97E-3C31A2508DE9}"/>
-    <hyperlink ref="B52" r:id="rId49" xr:uid="{50D29A95-F3AE-4AEE-B4A4-E1E3D3500CD8}"/>
-    <hyperlink ref="B53" r:id="rId50" xr:uid="{9F366FE8-8E2E-461B-A792-B1AFC38261E8}"/>
-    <hyperlink ref="B54" r:id="rId51" xr:uid="{5E26FFE7-4D63-4624-8933-08088AB7686D}"/>
-    <hyperlink ref="G4" r:id="rId52" xr:uid="{0C62D461-B31E-4715-A9D6-E7E6284E441A}"/>
-    <hyperlink ref="H4" r:id="rId53" xr:uid="{9FE41338-BABB-452D-8D13-4B16795DD298}"/>
-    <hyperlink ref="F4" r:id="rId54" xr:uid="{21E76445-EF84-44D9-93B9-6FDBB23F206B}"/>
-    <hyperlink ref="F5" r:id="rId55" xr:uid="{9D315B34-C957-415C-BEDE-E8EF0A30B69C}"/>
-    <hyperlink ref="E5" r:id="rId56" xr:uid="{D9A5620F-7C89-43FB-A50F-CAD41383EBE4}"/>
-    <hyperlink ref="F6" r:id="rId57" xr:uid="{75EC96BC-F34E-44DB-8AD9-84F9EAA02266}"/>
-    <hyperlink ref="G6" r:id="rId58" xr:uid="{68C76C5C-29E3-40F4-A271-49AE0134E4B8}"/>
-    <hyperlink ref="H6" r:id="rId59" xr:uid="{5F0A209A-F51A-4BD3-8512-BEC2C9BA0719}"/>
-    <hyperlink ref="I6" r:id="rId60" xr:uid="{38DD9100-E99A-439F-A8C4-CF7872CA6F12}"/>
-    <hyperlink ref="J6" r:id="rId61" xr:uid="{04706953-2CA5-4008-958E-F916E2D50668}"/>
-    <hyperlink ref="F7" r:id="rId62" xr:uid="{2E3D6222-1911-40A3-86FE-F09ABEA70AD9}"/>
-    <hyperlink ref="H7" r:id="rId63" xr:uid="{C8BF03BB-F01E-41C8-A549-1B396EF53947}"/>
-    <hyperlink ref="J7" r:id="rId64" xr:uid="{B5B0C88E-244E-4CCA-9CE1-2444072C99A2}"/>
-    <hyperlink ref="K7" r:id="rId65" xr:uid="{69D6B65F-493A-45EF-B2AA-35C3B1EEF4E0}"/>
-    <hyperlink ref="F8" r:id="rId66" xr:uid="{70047684-0486-42AE-99EE-D57C7713EAF4}"/>
-    <hyperlink ref="F11" r:id="rId67" xr:uid="{22DD313E-1012-49E2-9755-0CCC92AD3B20}"/>
-    <hyperlink ref="F12" r:id="rId68" xr:uid="{467BFACB-C349-466A-A821-33E648489DBE}"/>
-    <hyperlink ref="F10" r:id="rId69" xr:uid="{8EB2FE83-B4D1-48F7-82DF-1D20B3EF3FE6}"/>
-    <hyperlink ref="F14" r:id="rId70" xr:uid="{CE3BCAA1-C9DC-4C40-B194-02AAFA9A64DB}"/>
-    <hyperlink ref="E15" r:id="rId71" xr:uid="{CB783B1C-00DD-428F-A2BE-50D27922D805}"/>
-    <hyperlink ref="E16" r:id="rId72" xr:uid="{CA749BDA-6BBD-4965-B870-4A6E51BB031E}"/>
-    <hyperlink ref="F16" r:id="rId73" xr:uid="{314154A9-7EF3-4B86-A52C-E6D57BC99047}"/>
-    <hyperlink ref="E17" r:id="rId74" xr:uid="{B1BF98D1-86B5-4BA6-AE48-AAE94D8F9F62}"/>
-    <hyperlink ref="B55" r:id="rId75" xr:uid="{F4DBF6A6-F442-4154-9E97-601A977F8D06}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{69D2AB86-E206-4B3C-AB3F-367E8EEDA889}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{CFA8A561-FBBF-4569-AD95-8D69F2DD535C}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{D331704C-B898-442F-8E9C-6091E528C29B}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{9DE7D3B8-002E-4380-BA65-FDC4ED8DF702}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{45A1360A-145D-4AB0-AE92-7DF71B895747}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{C8D4AC68-7BD3-45BF-B17E-B5BE428AD5A0}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{0CFBC615-C740-490A-8422-2D6F0BC40294}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{B404EB5B-69F7-43A3-A159-594CB67FD9A3}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{B0073769-F673-4D9F-9B04-3F918A46DA1A}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{5D730E0E-9E72-4A71-BF55-2AECDF320411}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{2E844E3A-65E1-4E4E-86D9-63313D5096E8}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{81E10B95-9D1D-413F-9F91-846AD856F95D}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{64F00937-D8EC-419A-81B9-9CCFE399226A}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{F2F29277-2865-4679-9006-AF1023389A84}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{BC9D82F6-2C2D-494C-AFDC-EE745263F1E2}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{1703175B-C48C-42FD-B90A-CAB707F7B720}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{DA396028-57F8-4AA3-859D-DD9432B89FE7}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{5C21957E-B7E7-4B06-96A3-9AFFE42D494C}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{798E71D7-C956-414D-A058-1C77DED0F463}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{A8F44F86-2E32-463D-9EA1-6CCD8829BFB5}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{EF1A03CB-B135-4874-966C-96DDB451A714}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{6DF73651-AD21-4578-8968-9E37E31646D8}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{B53175D5-32B1-47F6-B9C0-D9737AE9737D}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{3A20468C-3362-4CF0-91DD-208113E36C64}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{F91799B8-BF28-4C18-8C8D-B744D258744E}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{59976798-38BB-4C3F-A96B-234CDAE4F5C3}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{734C7D2F-C09A-4466-B027-2F125BFF11AB}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{4FF9DF04-D8CC-47D1-877B-ED17503510FE}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{1961BB1D-44CC-4F56-A4DD-E452A95B11B9}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{F442F031-2940-4091-B2D9-3A160D939EF3}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{8A17E9E2-4731-41C9-B869-29A912A11EE5}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{B3B4FDDE-6A7C-4E8B-B470-AEC817C9097E}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{40182CCB-8AFC-458F-A5E3-DDBC894A7698}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{2F518175-2CDE-4877-9A38-D7A5484DFA6B}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{C7BC2CA5-79A9-4030-A641-1F5777095360}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{C6C1D8CB-8249-4333-BFBE-1BD32EED3C19}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{2814156B-EC0A-4204-AEED-01AB874EA569}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{BA09AE86-5EC9-4510-8390-65925E76CC51}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{60936D04-DEA4-4CAA-9872-69880629389B}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{72A3A922-244C-4DB3-98DF-1CBBAAA9FDD5}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{847BB4F2-2E2F-44CE-BE85-7A8F1704C057}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{AF8055F0-A6BE-4C7C-8F09-2ECCB9BE661E}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{FC3B3DFF-76D8-4CED-AD12-054FF5A54436}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{05CAB511-9C4A-4D74-B97E-3C31A2508DE9}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{50D29A95-F3AE-4AEE-B4A4-E1E3D3500CD8}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{5E26FFE7-4D63-4624-8933-08088AB7686D}"/>
+    <hyperlink ref="G3" r:id="rId47" xr:uid="{0C62D461-B31E-4715-A9D6-E7E6284E441A}"/>
+    <hyperlink ref="H3" r:id="rId48" xr:uid="{9FE41338-BABB-452D-8D13-4B16795DD298}"/>
+    <hyperlink ref="F3" r:id="rId49" xr:uid="{21E76445-EF84-44D9-93B9-6FDBB23F206B}"/>
+    <hyperlink ref="F4" r:id="rId50" xr:uid="{9D315B34-C957-415C-BEDE-E8EF0A30B69C}"/>
+    <hyperlink ref="E4" r:id="rId51" xr:uid="{D9A5620F-7C89-43FB-A50F-CAD41383EBE4}"/>
+    <hyperlink ref="F5" r:id="rId52" xr:uid="{75EC96BC-F34E-44DB-8AD9-84F9EAA02266}"/>
+    <hyperlink ref="G5" r:id="rId53" xr:uid="{68C76C5C-29E3-40F4-A271-49AE0134E4B8}"/>
+    <hyperlink ref="H5" r:id="rId54" xr:uid="{5F0A209A-F51A-4BD3-8512-BEC2C9BA0719}"/>
+    <hyperlink ref="I5" r:id="rId55" xr:uid="{38DD9100-E99A-439F-A8C4-CF7872CA6F12}"/>
+    <hyperlink ref="J5" r:id="rId56" xr:uid="{04706953-2CA5-4008-958E-F916E2D50668}"/>
+    <hyperlink ref="F6" r:id="rId57" xr:uid="{2E3D6222-1911-40A3-86FE-F09ABEA70AD9}"/>
+    <hyperlink ref="H6" r:id="rId58" xr:uid="{C8BF03BB-F01E-41C8-A549-1B396EF53947}"/>
+    <hyperlink ref="J6" r:id="rId59" xr:uid="{B5B0C88E-244E-4CCA-9CE1-2444072C99A2}"/>
+    <hyperlink ref="K6" r:id="rId60" xr:uid="{69D6B65F-493A-45EF-B2AA-35C3B1EEF4E0}"/>
+    <hyperlink ref="F7" r:id="rId61" xr:uid="{70047684-0486-42AE-99EE-D57C7713EAF4}"/>
+    <hyperlink ref="F10" r:id="rId62" xr:uid="{22DD313E-1012-49E2-9755-0CCC92AD3B20}"/>
+    <hyperlink ref="F11" r:id="rId63" xr:uid="{467BFACB-C349-466A-A821-33E648489DBE}"/>
+    <hyperlink ref="F9" r:id="rId64" xr:uid="{8EB2FE83-B4D1-48F7-82DF-1D20B3EF3FE6}"/>
+    <hyperlink ref="F13" r:id="rId65" xr:uid="{CE3BCAA1-C9DC-4C40-B194-02AAFA9A64DB}"/>
+    <hyperlink ref="E14" r:id="rId66" xr:uid="{CB783B1C-00DD-428F-A2BE-50D27922D805}"/>
+    <hyperlink ref="E15" r:id="rId67" xr:uid="{CA749BDA-6BBD-4965-B870-4A6E51BB031E}"/>
+    <hyperlink ref="F15" r:id="rId68" xr:uid="{314154A9-7EF3-4B86-A52C-E6D57BC99047}"/>
+    <hyperlink ref="E16" r:id="rId69" xr:uid="{B1BF98D1-86B5-4BA6-AE48-AAE94D8F9F62}"/>
+    <hyperlink ref="B49" r:id="rId70" xr:uid="{F4DBF6A6-F442-4154-9E97-601A977F8D06}"/>
+    <hyperlink ref="G17" r:id="rId71" xr:uid="{F12F6394-93AF-4289-8B39-FAFF450BDDD6}"/>
+    <hyperlink ref="E18" r:id="rId72" xr:uid="{DD1DD8B3-428D-48C5-8BA2-9295723C4766}"/>
+    <hyperlink ref="E19" r:id="rId73" xr:uid="{695B4F48-DF8B-469C-A201-B06706BB107C}"/>
+    <hyperlink ref="E20" r:id="rId74" xr:uid="{D17A03AB-4D6F-42E0-837C-7B09115AD952}"/>
+    <hyperlink ref="E22" r:id="rId75" xr:uid="{5BF6974F-DD90-4B6A-8EDB-D8F7176FA6C4}"/>
+    <hyperlink ref="E21" r:id="rId76" xr:uid="{B39F37D2-0E74-4BBC-98E2-A0A7C9D20E06}"/>
+    <hyperlink ref="F23" r:id="rId77" xr:uid="{59C57318-C771-44CA-B3AF-FC73E25CF76A}"/>
+    <hyperlink ref="F24" r:id="rId78" xr:uid="{39ED28D9-0177-4E2B-8617-71344569D21B}"/>
+    <hyperlink ref="E25" r:id="rId79" xr:uid="{FA9FBF5A-81B6-4254-B53A-82D0B6931DCA}"/>
+    <hyperlink ref="G26" r:id="rId80" xr:uid="{ACB35A5C-0861-403B-ABC7-304730C22D8E}"/>
+    <hyperlink ref="G27" r:id="rId81" xr:uid="{4D04A444-DE4A-49AA-A6B0-6707E2B1458D}"/>
+    <hyperlink ref="E28" r:id="rId82" xr:uid="{77A33A1F-017A-404A-A806-77FB1FBBDA29}"/>
+    <hyperlink ref="F28" r:id="rId83" xr:uid="{274E75F0-02DF-40AF-9F89-ED571F0E2477}"/>
+    <hyperlink ref="E30" r:id="rId84" xr:uid="{B674B58A-4C5A-4A3C-B519-9E832961C148}"/>
+    <hyperlink ref="F29" r:id="rId85" xr:uid="{6AB9F66C-CDE1-45AE-83FB-E93EE58ADC8B}"/>
+    <hyperlink ref="G31" r:id="rId86" xr:uid="{2C2FFB63-56D2-463E-9897-057DEF1F6371}"/>
+    <hyperlink ref="F32" r:id="rId87" xr:uid="{B9E31040-BD96-4207-8A38-CBF4A16FFAB9}"/>
+    <hyperlink ref="F33" r:id="rId88" xr:uid="{FB7E3E6D-AD45-4CB8-A76F-68FCC13F2D3D}"/>
+    <hyperlink ref="E34" r:id="rId89" xr:uid="{0B735780-C356-4DB9-A16A-421547038D05}"/>
+    <hyperlink ref="F35" r:id="rId90" xr:uid="{5BA1CE17-542B-45E8-B657-F313C84B653E}"/>
+    <hyperlink ref="E36" r:id="rId91" xr:uid="{A8B9C960-9367-4A0F-A19B-E3C8C83784A4}"/>
+    <hyperlink ref="F37" r:id="rId92" xr:uid="{50003A94-3F09-434A-A14A-AF28852E78FE}"/>
+    <hyperlink ref="F38" r:id="rId93" xr:uid="{20594524-7126-437C-9693-4B5D2CAE4818}"/>
+    <hyperlink ref="E39" r:id="rId94" xr:uid="{FEAA2441-20B1-437F-9034-BA54661E34B2}"/>
+    <hyperlink ref="F40" r:id="rId95" location="tip" xr:uid="{9B0DA260-E968-468D-8F11-F88403BB1F7E}"/>
+    <hyperlink ref="F41" r:id="rId96" xr:uid="{0D1476F0-509D-42E7-B926-5D06D6EB0D59}"/>
+    <hyperlink ref="F42" r:id="rId97" xr:uid="{B39E3B6F-E652-4033-958B-F31F744FC17B}"/>
+    <hyperlink ref="E43" r:id="rId98" xr:uid="{D1628791-B476-4A16-8727-13232698757C}"/>
+    <hyperlink ref="F44" r:id="rId99" xr:uid="{CA98CC62-385F-4234-8E4D-2F2C49B3E2E9}"/>
+    <hyperlink ref="F45" r:id="rId100" xr:uid="{CAAEAF45-CB72-41EB-B08B-26CCC78BB9CB}"/>
+    <hyperlink ref="F46" r:id="rId101" xr:uid="{24BFC60B-E682-4CEA-B979-A6F9AA89ECB8}"/>
+    <hyperlink ref="E48" r:id="rId102" xr:uid="{D694E0E0-C63F-4E06-8198-0F316BF022E5}"/>
+    <hyperlink ref="E49" r:id="rId103" xr:uid="{68C36AA4-B7B2-47DA-885D-72590BCE4E38}"/>
+    <hyperlink ref="E47" r:id="rId104" xr:uid="{65EF1289-1FBB-4C92-9A1C-306D1855D8E4}"/>
+    <hyperlink ref="B50" r:id="rId105" xr:uid="{56AD7710-3D36-4ACB-A793-6C1AD76FE134}"/>
+    <hyperlink ref="E50" r:id="rId106" xr:uid="{B83C33F6-06E4-42F1-BC0C-C165788850CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId76"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId107"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D37F0E-1DAF-48EC-AFF2-DDEFB319F2BD}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,516 +2536,693 @@
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="121.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>205</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E22" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F23" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>212</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>350</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{945EBB50-0656-4E9D-B32F-B5E0CDD9D388}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{6E38E2DD-BF09-493F-83EC-262FB825DBED}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{487CD8BC-0AA6-4623-889E-1AA77E33FD8B}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{C97EE833-0420-431E-B858-1FEFC2550E06}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{91736323-C3C5-498C-80EF-2C518F730601}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{2D099EE3-56C2-45F1-884C-E9E19AA83FF6}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{13C08546-3E58-4567-9D67-2CAC212D44B0}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{59015833-7A07-4199-A47D-AF0A6683A589}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{F8C25262-4B40-49D2-9403-C8B6A1967BDF}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{1F9849D3-84B4-461A-B60E-40650D23B800}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{8E8832B6-0F29-47BA-A107-92CEA5A56FDF}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{35FCE8DF-3657-4C2C-9D3E-ED11A53BA2F4}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{73E3CA92-02DE-44DF-AEBF-E0ED3D8B45D9}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{CE22AD1F-1587-4C2B-8816-99332761C222}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{AA185EB7-C3A2-45D5-B9FB-EFE7016BF8FA}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{14AE94EF-D6FF-4E4C-A11C-70E965EB4322}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{CA438EC5-CA45-406C-8D0F-B9D6A6FFF2A6}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{F078B18F-1EA5-48A5-8605-7533126B65A0}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{A0071E15-1C5E-4477-BB2A-9C58EC39A2E5}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{B418AD9B-9159-408B-9653-00921DDDF037}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{CC8E4AF0-AFB6-45C9-A5A3-BFEF2816BA87}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{35D49F5E-BD49-4358-B065-CDF118D5C287}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{E324BF03-F4AE-4FE2-AC73-67256BE61791}"/>
-    <hyperlink ref="B27" r:id="rId24" xr:uid="{A67F81AE-F08E-47B7-9816-2A235AC29ACE}"/>
-    <hyperlink ref="B28" r:id="rId25" xr:uid="{BB7FC3D5-61F2-42D1-A3D0-D658E66DD7A6}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{945EBB50-0656-4E9D-B32F-B5E0CDD9D388}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{6E38E2DD-BF09-493F-83EC-262FB825DBED}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{487CD8BC-0AA6-4623-889E-1AA77E33FD8B}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{C97EE833-0420-431E-B858-1FEFC2550E06}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{91736323-C3C5-498C-80EF-2C518F730601}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{2D099EE3-56C2-45F1-884C-E9E19AA83FF6}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{13C08546-3E58-4567-9D67-2CAC212D44B0}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{59015833-7A07-4199-A47D-AF0A6683A589}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{F8C25262-4B40-49D2-9403-C8B6A1967BDF}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{1F9849D3-84B4-461A-B60E-40650D23B800}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{8E8832B6-0F29-47BA-A107-92CEA5A56FDF}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{35FCE8DF-3657-4C2C-9D3E-ED11A53BA2F4}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{73E3CA92-02DE-44DF-AEBF-E0ED3D8B45D9}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{CE22AD1F-1587-4C2B-8816-99332761C222}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{AA185EB7-C3A2-45D5-B9FB-EFE7016BF8FA}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{14AE94EF-D6FF-4E4C-A11C-70E965EB4322}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{CA438EC5-CA45-406C-8D0F-B9D6A6FFF2A6}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{F078B18F-1EA5-48A5-8605-7533126B65A0}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{A0071E15-1C5E-4477-BB2A-9C58EC39A2E5}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{B418AD9B-9159-408B-9653-00921DDDF037}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{CC8E4AF0-AFB6-45C9-A5A3-BFEF2816BA87}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{35D49F5E-BD49-4358-B065-CDF118D5C287}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{E324BF03-F4AE-4FE2-AC73-67256BE61791}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{A67F81AE-F08E-47B7-9816-2A235AC29ACE}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{BB7FC3D5-61F2-42D1-A3D0-D658E66DD7A6}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{782FB255-1956-4B5F-9C09-8B7D8807CE2D}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{F39615E0-E3EF-4493-8E0B-56CF7E66896E}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{4BE00E58-DF93-487B-89E9-09FD3E08C36E}"/>
+    <hyperlink ref="E3" r:id="rId29" xr:uid="{5B41C4F2-BBAD-4414-9AFF-52763D0026B0}"/>
+    <hyperlink ref="G4" r:id="rId30" xr:uid="{4CA8E7B1-4E95-4A89-8743-294DEFA24D85}"/>
+    <hyperlink ref="E5" r:id="rId31" xr:uid="{39150D05-2C49-4286-939D-30A3F1490FF6}"/>
+    <hyperlink ref="F6" r:id="rId32" xr:uid="{757E75B7-4EA2-433B-A8A3-59B1ADF94F47}"/>
+    <hyperlink ref="E6" r:id="rId33" xr:uid="{B7D6FFB6-E2CA-40DB-AD38-9D25634C2034}"/>
+    <hyperlink ref="E8" r:id="rId34" xr:uid="{4E40D7A2-26D5-4D51-98EF-307FDD75EFDE}"/>
+    <hyperlink ref="F9" r:id="rId35" xr:uid="{80B6D0AE-7506-4927-A809-E4EAFE79D0D6}"/>
+    <hyperlink ref="F10" r:id="rId36" xr:uid="{EEC7CA4A-1E93-49FA-BB89-25F490E59360}"/>
+    <hyperlink ref="E11" r:id="rId37" xr:uid="{2F05E71D-06BB-4D94-9DCB-C9E80C4C0A18}"/>
+    <hyperlink ref="E12" r:id="rId38" xr:uid="{ABB0C011-244A-402C-9649-6945221B15C8}"/>
+    <hyperlink ref="E13" r:id="rId39" xr:uid="{67CA961F-2364-4FA1-A0AA-0E0DC96626D1}"/>
+    <hyperlink ref="E21" r:id="rId40" xr:uid="{67F239FC-7D19-46FD-9667-25307778393E}"/>
+    <hyperlink ref="F20" r:id="rId41" xr:uid="{4C96449D-4406-4AF6-8E25-7E0F93E6CC74}"/>
+    <hyperlink ref="E19" r:id="rId42" xr:uid="{52236962-4AB2-4C85-B4F8-F88EC151A06B}"/>
+    <hyperlink ref="E18" r:id="rId43" xr:uid="{F4567B8F-A5C8-41FC-8C99-F79C5BED7613}"/>
+    <hyperlink ref="E17" r:id="rId44" xr:uid="{559987A9-79ED-4829-B667-9D19938419D4}"/>
+    <hyperlink ref="E16" r:id="rId45" xr:uid="{2613F13D-6AB7-4136-9B7D-81129D7671BC}"/>
+    <hyperlink ref="F15" r:id="rId46" xr:uid="{CDBCE2EF-B9D3-4081-8A1D-8FA31E72A2E4}"/>
+    <hyperlink ref="F14" r:id="rId47" xr:uid="{89795BE4-2649-4815-B988-DE3F6598FF78}"/>
+    <hyperlink ref="G28" r:id="rId48" xr:uid="{A35DFBF5-C8E9-4B04-9BA1-457A056F5771}"/>
+    <hyperlink ref="E26" r:id="rId49" xr:uid="{93503F1B-9BC1-485F-8CED-FCB2C0C2D3A6}"/>
+    <hyperlink ref="F27" r:id="rId50" xr:uid="{0B322C3B-7042-4DB3-B3BB-7E03D6048205}"/>
+    <hyperlink ref="F25" r:id="rId51" xr:uid="{ACBB3A19-C6F7-46A4-BAB7-1EBFD5F91C94}"/>
+    <hyperlink ref="E24" r:id="rId52" xr:uid="{3E410969-DEE2-4C37-A6EE-CA58EF160751}"/>
+    <hyperlink ref="F23" r:id="rId53" xr:uid="{ADCEC357-790C-4D10-9B6E-6251119908E9}"/>
+    <hyperlink ref="E22" r:id="rId54" xr:uid="{281C2982-BF2B-403C-9E1A-5FEF270484F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId55"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C41F31-489D-486F-A922-B1BB4C48EE1F}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>238</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>366</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>233</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>306</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{71B1F747-4291-4D7A-975E-6423B95F9F9A}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{05D2BB33-E3D9-4B68-B706-0EE8F9F73408}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{F445750A-0104-4B9F-AEE1-5F545AA31335}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{13D1CACD-50FF-4593-B583-3FBF7B9EC14D}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{BDA48A6B-B3DB-40FE-B669-6079DBCFC4E9}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{36FBBE2B-6974-45B8-B1EF-05B9E3D200A9}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{B8BF5A5A-11FD-4C9F-B178-8CD5213E2DFB}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{FEC864D0-B354-4F40-8573-FA82342282C9}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{DFD84415-AA31-443E-A464-83076F7F1E1C}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{D0678181-7F31-4C17-BC75-C12CC970028A}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{CBFCA17C-D378-47B6-B3DB-8BAE0501629F}"/>
-    <hyperlink ref="B19" r:id="rId12" xr:uid="{212504FE-9A68-4F58-B9D2-B10266A97747}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{FF342BC7-24DA-4744-9DCC-E0469D90DC26}"/>
-    <hyperlink ref="B21" r:id="rId14" xr:uid="{4CCDFEC5-38D8-430A-93CB-FA0D4F33FEDF}"/>
-    <hyperlink ref="B22" r:id="rId15" xr:uid="{84136819-1E14-4E6D-B9D4-1A0E0F5FC146}"/>
-    <hyperlink ref="B14" r:id="rId16" xr:uid="{2A7945E0-2EDB-41B4-9399-70333592FEBC}"/>
-    <hyperlink ref="B15" r:id="rId17" xr:uid="{1BC720BC-FDC6-4D8F-BF70-A63BB2707FA5}"/>
-    <hyperlink ref="B17" r:id="rId18" xr:uid="{8653321C-E242-42DB-B761-C6802EA65FFE}"/>
-    <hyperlink ref="B18" r:id="rId19" xr:uid="{D96DCA1B-2965-4738-BEDC-416D7AB8C013}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{BFA3A2C0-C1AA-4CD1-ACEE-B34852E27A44}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{9FA6EC67-2093-45B0-A1C3-4D879B495664}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{857A2F20-30D3-40F0-9EB9-52E364D7A39C}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{05EE124B-6F3C-46EF-913C-0AFEC17E9521}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{71B1F747-4291-4D7A-975E-6423B95F9F9A}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{05D2BB33-E3D9-4B68-B706-0EE8F9F73408}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{F445750A-0104-4B9F-AEE1-5F545AA31335}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{BDA48A6B-B3DB-40FE-B669-6079DBCFC4E9}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{B8BF5A5A-11FD-4C9F-B178-8CD5213E2DFB}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{FEC864D0-B354-4F40-8573-FA82342282C9}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{DFD84415-AA31-443E-A464-83076F7F1E1C}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{D0678181-7F31-4C17-BC75-C12CC970028A}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{212504FE-9A68-4F58-B9D2-B10266A97747}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{FF342BC7-24DA-4744-9DCC-E0469D90DC26}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{2A7945E0-2EDB-41B4-9399-70333592FEBC}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{1BC720BC-FDC6-4D8F-BF70-A63BB2707FA5}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{D96DCA1B-2965-4738-BEDC-416D7AB8C013}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{BFA3A2C0-C1AA-4CD1-ACEE-B34852E27A44}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{857A2F20-30D3-40F0-9EB9-52E364D7A39C}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{C1A36440-BD19-4CCD-A3E3-AB45D4992CED}"/>
+    <hyperlink ref="E3" r:id="rId17" xr:uid="{7363F263-1C8C-4ACC-A43B-8778AD5B07BC}"/>
+    <hyperlink ref="E4" r:id="rId18" xr:uid="{8A662BD1-D5DB-467D-9F8F-B39D706B1504}"/>
+    <hyperlink ref="E5" r:id="rId19" xr:uid="{9A6F0602-4B23-490C-B8B3-81C20D057499}"/>
+    <hyperlink ref="F6" r:id="rId20" xr:uid="{C8DF248C-44C7-4047-82E4-8AD6EF47EE78}"/>
+    <hyperlink ref="E7" r:id="rId21" xr:uid="{C63692B8-A111-4884-8077-8B61F37C6100}"/>
+    <hyperlink ref="E8" r:id="rId22" xr:uid="{BD5F5DFB-8D84-4C67-B187-4D8FD924CC75}"/>
+    <hyperlink ref="E9" r:id="rId23" xr:uid="{F28A75F2-8624-4D3E-AA79-91976BB03C06}"/>
+    <hyperlink ref="F10" r:id="rId24" xr:uid="{FE9C07D4-5ED3-463E-8E41-9F524147F60E}"/>
+    <hyperlink ref="E11" r:id="rId25" xr:uid="{6A16C2CB-4487-4553-861F-D7819F7CDE63}"/>
+    <hyperlink ref="E12" r:id="rId26" xr:uid="{E43BAEE7-08A5-4AE7-A75A-619C7CC95553}"/>
+    <hyperlink ref="E13" r:id="rId27" xr:uid="{4D9FDA5F-2E47-4355-9C25-5303ED3EACDD}"/>
+    <hyperlink ref="E14" r:id="rId28" xr:uid="{265502B5-9D13-46B8-A6A2-C05C670C4835}"/>
+    <hyperlink ref="E15" r:id="rId29" xr:uid="{75EE8B7E-E8CF-4AE2-BFAB-57F8BD07EEE0}"/>
+    <hyperlink ref="E16" r:id="rId30" xr:uid="{65DC867C-40D0-4DC2-9F18-9CBA9B08D24B}"/>
+    <hyperlink ref="E17" r:id="rId31" xr:uid="{B8281E07-5E8D-489D-A01B-0F2CDC5A7375}"/>
+    <hyperlink ref="E18" r:id="rId32" xr:uid="{71AC18C0-A484-490B-9A8C-E1228D703790}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2534,77 +3230,131 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A5A6D5-8A86-46D4-91BD-964C68D267D7}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>386</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>385</v>
+      </c>
+      <c r="C7" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{8F044089-3011-4BA9-979B-29F303F244F2}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{EDF753A0-A71E-477A-8FC7-1D6FC248FB64}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{DB91B37D-8647-412B-A91D-D5021B127585}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{9884F0BE-147A-44DC-BB28-1194D9A5BB99}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8F044089-3011-4BA9-979B-29F303F244F2}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{EDF753A0-A71E-477A-8FC7-1D6FC248FB64}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{DB91B37D-8647-412B-A91D-D5021B127585}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{9884F0BE-147A-44DC-BB28-1194D9A5BB99}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{EB45E9E4-2EA2-469F-8CCA-03B5BF3AE736}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{55D85044-6306-4FEA-A853-A6A447DBD699}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{2A42B3FD-9B62-407D-B237-098407382C64}"/>
+    <hyperlink ref="E4" r:id="rId8" xr:uid="{5349EEAE-7F5A-4A28-A4A0-480CD049EA97}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{D8AEAD04-485E-473D-BF0D-13CBD8D81E90}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{F3D3EF9B-1CCC-4424-9609-7A74E3D25BA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2612,97 +3362,147 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7209A79F-DF24-456D-92A7-CE4ADA1A7FAA}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{8D809E7C-C314-402D-B717-8AF621F5D400}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{C02F3ACA-343D-4C4E-8B9B-799DF75017C4}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{158D6393-46C9-4141-96A5-D906432339E7}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{2A764EC5-3D40-4DB6-B71C-F04F63D52550}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{74733576-EA7A-4FFD-92C5-0EC89206F5FA}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8D809E7C-C314-402D-B717-8AF621F5D400}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{C02F3ACA-343D-4C4E-8B9B-799DF75017C4}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{158D6393-46C9-4141-96A5-D906432339E7}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{2A764EC5-3D40-4DB6-B71C-F04F63D52550}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{74733576-EA7A-4FFD-92C5-0EC89206F5FA}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{6D1AB1A7-A3BB-4158-8DBE-712DCBD0A802}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{761F155F-0FDF-444B-B312-6E5C2CFBCF6A}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{5244ED1A-10A8-4F1F-A237-742C2BB8ED87}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{90DAD146-82C7-4BBA-81FA-8657E1C85EDA}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{7C35FD88-88A8-4C07-8E52-B5CF535B9395}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{B845269E-7897-4CAB-9171-B884148A7256}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{638D55EC-968E-4204-94BA-951C6BAB482E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2710,349 +3510,565 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8923E2-63F3-49B9-9119-687B22F30048}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="143.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="F17" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>265</v>
-      </c>
-      <c r="B19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>399</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>266</v>
+        <v>404</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" t="s">
-        <v>165</v>
+        <v>400</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="D25" t="s">
+        <v>433</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>267</v>
+        <v>401</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H27" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>406</v>
+      </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>305</v>
+        <v>360</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>405</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>407</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>403</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s">
+        <v>370</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{29305264-03E6-4364-9482-0A2C2A106272}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{DFC9AD17-EC43-4449-88EC-EF8B90A3F604}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{209D6D27-BAFE-422C-B588-EFD509FDC697}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{5A853191-6105-4489-A6DE-58DC0A419751}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{DD0EA7EC-7CD3-4FA6-8BDC-F75289685085}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{25FC8B18-D909-40BF-BC7E-2C34045C9F35}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{F6D93432-C818-4DDD-B589-1B42AE3BCF4E}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{6640D4A6-F438-41F9-9EC3-0FAC351AD6B9}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{3098B851-B247-4F8E-9928-BB10F0A4C22E}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{DE781D45-EE85-43B9-8C6F-7025FD594845}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{BE310ACF-1B46-4E25-AAB2-36B13EBFA0E1}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{2854E832-751A-4981-990D-BECE1EFA52FC}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{90A7DF62-8A1C-4572-A97A-FA64AA9944A0}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{CDEF2EAF-097E-4D92-ABE8-D0FC686F0B95}"/>
-    <hyperlink ref="C18" r:id="rId15" xr:uid="{E1A2592E-6D22-4967-94BD-88B99D57B0CB}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{0AE14F88-5D81-45CD-BBD0-88C4A097A957}"/>
-    <hyperlink ref="C20" r:id="rId17" xr:uid="{A98C767C-518E-4A87-A10F-DDB68FD5502B}"/>
-    <hyperlink ref="C21" r:id="rId18" xr:uid="{C5AD8EFA-3225-4BAB-A8B2-4914A3D8216F}"/>
-    <hyperlink ref="C22" r:id="rId19" xr:uid="{05E19CD9-C360-467E-A9F0-63543DBF8AE3}"/>
-    <hyperlink ref="C23" r:id="rId20" xr:uid="{74391DA8-5635-4AFA-96A3-4AD62875B636}"/>
-    <hyperlink ref="C24" r:id="rId21" xr:uid="{D598B20A-AB38-4501-A5EB-1A7D688B291E}"/>
-    <hyperlink ref="C25" r:id="rId22" xr:uid="{F39C7F35-9CF2-46A7-BA04-517A4B7C6A85}"/>
-    <hyperlink ref="C26" r:id="rId23" xr:uid="{BB02FF29-9709-400F-ACC1-B00A6380851E}"/>
-    <hyperlink ref="C27" r:id="rId24" xr:uid="{A15AA879-5F16-4800-8855-631A995E79DC}"/>
-    <hyperlink ref="C28" r:id="rId25" xr:uid="{B676DED4-AFA6-49DB-99D7-E728EA80062A}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{29305264-03E6-4364-9482-0A2C2A106272}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{DFC9AD17-EC43-4449-88EC-EF8B90A3F604}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{209D6D27-BAFE-422C-B588-EFD509FDC697}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{5A853191-6105-4489-A6DE-58DC0A419751}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{25FC8B18-D909-40BF-BC7E-2C34045C9F35}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{F6D93432-C818-4DDD-B589-1B42AE3BCF4E}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{3098B851-B247-4F8E-9928-BB10F0A4C22E}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{DE781D45-EE85-43B9-8C6F-7025FD594845}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{BE310ACF-1B46-4E25-AAB2-36B13EBFA0E1}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{2854E832-751A-4981-990D-BECE1EFA52FC}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{90A7DF62-8A1C-4572-A97A-FA64AA9944A0}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{CDEF2EAF-097E-4D92-ABE8-D0FC686F0B95}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{E1A2592E-6D22-4967-94BD-88B99D57B0CB}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{0AE14F88-5D81-45CD-BBD0-88C4A097A957}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{A98C767C-518E-4A87-A10F-DDB68FD5502B}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{C5AD8EFA-3225-4BAB-A8B2-4914A3D8216F}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{D598B20A-AB38-4501-A5EB-1A7D688B291E}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{BB02FF29-9709-400F-ACC1-B00A6380851E}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{A15AA879-5F16-4800-8855-631A995E79DC}"/>
+    <hyperlink ref="C22" r:id="rId20" xr:uid="{0AFB584A-C0C6-4924-9EDF-BFDB17B58DF9}"/>
+    <hyperlink ref="C23" r:id="rId21" xr:uid="{695388AC-367A-4964-87AD-B1FC7E1FF888}"/>
+    <hyperlink ref="C24" r:id="rId22" xr:uid="{5E13AA6E-F95B-44E2-82E1-13D1B00E686C}"/>
+    <hyperlink ref="C25" r:id="rId23" xr:uid="{0F26B161-51BA-4D38-B265-26CBEF5B2960}"/>
+    <hyperlink ref="C26" r:id="rId24" xr:uid="{F21AE9B0-3898-4235-AD6B-14797522BE94}"/>
+    <hyperlink ref="C27" r:id="rId25" xr:uid="{0AD137AD-C0E6-41B5-971E-BB2AB83BBB82}"/>
+    <hyperlink ref="C28" r:id="rId26" xr:uid="{964D6B70-C94A-4B72-A773-84B4CD08795E}"/>
+    <hyperlink ref="C29" r:id="rId27" xr:uid="{62E89C29-304E-4350-9408-949D7F1A5163}"/>
+    <hyperlink ref="C30" r:id="rId28" xr:uid="{EE5746E7-81F1-4612-9293-FC5DD8DBD4B6}"/>
+    <hyperlink ref="C31" r:id="rId29" xr:uid="{E93EF559-8EC1-4A47-8A36-E834F829EF73}"/>
+    <hyperlink ref="C32" r:id="rId30" xr:uid="{97A19305-9121-48B7-BA61-303F207A4F40}"/>
+    <hyperlink ref="F3" r:id="rId31" xr:uid="{F0B8160A-8CC0-48EC-B820-58571C6A0296}"/>
+    <hyperlink ref="G4" r:id="rId32" xr:uid="{55F80A23-BDE8-4078-82FA-BF8944FE7807}"/>
+    <hyperlink ref="F5" r:id="rId33" xr:uid="{93B3B62B-B877-4A84-8CEB-CD8E61D224F2}"/>
+    <hyperlink ref="F7" r:id="rId34" xr:uid="{DC2115C7-61FC-4A6A-9150-20B4D3646EB3}"/>
+    <hyperlink ref="F8" r:id="rId35" xr:uid="{D362CBC5-32A1-457B-85DF-1D9FEBF50689}"/>
+    <hyperlink ref="F9" r:id="rId36" xr:uid="{6D4B6444-D293-4ECC-B310-96CAA8F4F72F}"/>
+    <hyperlink ref="G10" r:id="rId37" xr:uid="{F077EEA8-3DE7-481B-A1FC-C3F880C5006B}"/>
+    <hyperlink ref="G11" r:id="rId38" xr:uid="{C2B90986-9AF2-4073-807F-25BA31346A86}"/>
+    <hyperlink ref="G13" r:id="rId39" xr:uid="{12625522-A141-418B-AEFF-FA90069C70C6}"/>
+    <hyperlink ref="G14" r:id="rId40" xr:uid="{21824A0C-0F06-497A-92B5-222170EAFDAC}"/>
+    <hyperlink ref="G15" r:id="rId41" xr:uid="{FCEA2046-2480-4AA6-837A-3B8698075CA1}"/>
+    <hyperlink ref="G16" r:id="rId42" xr:uid="{121AA853-B012-47BD-B5FD-5414B31EBE25}"/>
+    <hyperlink ref="F17" r:id="rId43" xr:uid="{644A9CA1-9C24-4704-A154-DD55B037F00E}"/>
+    <hyperlink ref="G18" r:id="rId44" xr:uid="{22A7405A-E99A-400E-9FB7-DFA4DE013282}"/>
+    <hyperlink ref="G19" r:id="rId45" xr:uid="{6F7815EF-12F6-4959-A2EE-7DC680FF2BE9}"/>
+    <hyperlink ref="G20" r:id="rId46" xr:uid="{4F722FC4-6918-4BFB-BD08-303C17EC4219}"/>
+    <hyperlink ref="F21" r:id="rId47" xr:uid="{7966EC15-6F7B-4A78-ABB1-39EE36BC8CB5}"/>
+    <hyperlink ref="F22" r:id="rId48" xr:uid="{6A3D9C46-5576-4EBF-81B8-F5E1D0B2C0E7}"/>
+    <hyperlink ref="F23" r:id="rId49" xr:uid="{4ED61F47-5DBF-445C-A0AE-B1352275789B}"/>
+    <hyperlink ref="G23" r:id="rId50" xr:uid="{EE9E6D87-B43C-48BA-9315-BB1303BDF991}"/>
+    <hyperlink ref="F24" r:id="rId51" xr:uid="{9A6D2C5C-A4B2-440D-B07E-17E58F93CDDF}"/>
+    <hyperlink ref="G24" r:id="rId52" xr:uid="{269EB736-BDB0-46FE-B9C6-31093C10E10F}"/>
+    <hyperlink ref="G25" r:id="rId53" xr:uid="{DEA4B166-9FCD-4574-84EB-E3878D44F8CF}"/>
+    <hyperlink ref="F26" r:id="rId54" xr:uid="{44F77B55-577B-4805-AF5F-54A210097CBA}"/>
+    <hyperlink ref="G27" r:id="rId55" xr:uid="{CE70428C-C6C9-4EFD-9F67-3DE8EBB1F2BE}"/>
+    <hyperlink ref="F28" r:id="rId56" xr:uid="{6593C019-1BD8-4295-B056-367AE3634F67}"/>
+    <hyperlink ref="F29" r:id="rId57" xr:uid="{D4D902B5-D709-4433-86DF-444FAB352807}"/>
+    <hyperlink ref="F30" r:id="rId58" xr:uid="{0EA15809-08BF-49E7-AB77-ED6B0BEDBCCD}"/>
+    <hyperlink ref="F31" r:id="rId59" xr:uid="{1543E33D-6B14-4CAB-AB04-88D28D52680C}"/>
+    <hyperlink ref="G32" r:id="rId60" xr:uid="{36780543-90FC-4D36-BAF5-EBBC8C67D56B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/private/overview_blogs.xlsx
+++ b/private/overview_blogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E286CF1-8747-4E8C-BA0E-3B60158B95CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857390F4-6F87-47F5-8B6F-C82B42E5A1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1755" windowWidth="29040" windowHeight="17640" tabRatio="483" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="483" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Englisch" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="442">
   <si>
     <t>Name</t>
   </si>
@@ -1409,12 +1409,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1430,7 +1436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1441,6 +1447,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1756,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ECA474-D700-44CE-9C5A-E8E903874F93}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E49" sqref="E46:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,7 +1835,7 @@
       <c r="F3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>250</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1840,7 +1849,7 @@
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>257</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1857,7 +1866,7 @@
       <c r="F5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>259</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1877,7 +1886,7 @@
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>266</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1906,7 +1915,7 @@
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="8" t="s">
         <v>273</v>
       </c>
     </row>
@@ -1930,7 +1939,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>278</v>
       </c>
     </row>
@@ -1944,7 +1953,7 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="8" t="s">
         <v>276</v>
       </c>
     </row>
@@ -1956,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="8" t="s">
         <v>277</v>
       </c>
     </row>
@@ -1992,7 +2001,7 @@
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>281</v>
       </c>
     </row>
@@ -2003,7 +2012,7 @@
       <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
         <v>283</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2017,7 +2026,7 @@
       <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="8" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2028,7 +2037,7 @@
       <c r="B17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="9" t="s">
         <v>294</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2042,7 +2051,7 @@
       <c r="B18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>295</v>
       </c>
     </row>
@@ -2053,7 +2062,7 @@
       <c r="B19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="8" t="s">
         <v>296</v>
       </c>
     </row>
@@ -2064,7 +2073,7 @@
       <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="8" t="s">
         <v>297</v>
       </c>
     </row>
@@ -2075,7 +2084,7 @@
       <c r="B21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>299</v>
       </c>
       <c r="F21" s="1"/>
@@ -2087,7 +2096,7 @@
       <c r="B22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="8" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2099,7 +2108,7 @@
         <v>88</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="8" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2107,10 +2116,10 @@
       <c r="A24" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="8" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2121,7 +2130,7 @@
       <c r="B25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="8" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2132,7 +2141,7 @@
       <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="8" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2143,7 +2152,7 @@
       <c r="B27" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="8" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2157,7 +2166,7 @@
       <c r="E28" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="8" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2168,7 +2177,7 @@
       <c r="B29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="8" t="s">
         <v>307</v>
       </c>
     </row>
@@ -2179,7 +2188,7 @@
       <c r="B30" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="8" t="s">
         <v>308</v>
       </c>
       <c r="F30" s="1"/>
@@ -2191,7 +2200,7 @@
       <c r="B31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="8" t="s">
         <v>309</v>
       </c>
     </row>
@@ -2202,7 +2211,7 @@
       <c r="B32" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="8" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2213,7 +2222,7 @@
       <c r="B33" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="8" t="s">
         <v>311</v>
       </c>
     </row>
@@ -2224,7 +2233,7 @@
       <c r="B34" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="8" t="s">
         <v>312</v>
       </c>
     </row>
@@ -2235,7 +2244,7 @@
       <c r="B35" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="8" t="s">
         <v>313</v>
       </c>
     </row>
@@ -2246,7 +2255,7 @@
       <c r="B36" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="8" t="s">
         <v>314</v>
       </c>
     </row>
@@ -2257,7 +2266,7 @@
       <c r="B37" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="8" t="s">
         <v>315</v>
       </c>
     </row>
@@ -2268,143 +2277,132 @@
       <c r="B38" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>317</v>
+        <v>137</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>318</v>
+        <v>138</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>319</v>
+        <v>139</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>322</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" t="s">
-        <v>322</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>323</v>
+        <v>157</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>324</v>
+        <v>159</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>325</v>
+        <v>161</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>329</v>
+        <v>204</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>328</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A49" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E49" s="8" t="s">
         <v>358</v>
       </c>
     </row>
@@ -2447,79 +2445,77 @@
     <hyperlink ref="B36" r:id="rId34" xr:uid="{2F518175-2CDE-4877-9A38-D7A5484DFA6B}"/>
     <hyperlink ref="B37" r:id="rId35" xr:uid="{C7BC2CA5-79A9-4030-A641-1F5777095360}"/>
     <hyperlink ref="B38" r:id="rId36" xr:uid="{C6C1D8CB-8249-4333-BFBE-1BD32EED3C19}"/>
-    <hyperlink ref="B39" r:id="rId37" xr:uid="{2814156B-EC0A-4204-AEED-01AB874EA569}"/>
-    <hyperlink ref="B40" r:id="rId38" xr:uid="{BA09AE86-5EC9-4510-8390-65925E76CC51}"/>
-    <hyperlink ref="B41" r:id="rId39" xr:uid="{60936D04-DEA4-4CAA-9872-69880629389B}"/>
-    <hyperlink ref="B42" r:id="rId40" xr:uid="{72A3A922-244C-4DB3-98DF-1CBBAAA9FDD5}"/>
-    <hyperlink ref="B43" r:id="rId41" xr:uid="{847BB4F2-2E2F-44CE-BE85-7A8F1704C057}"/>
-    <hyperlink ref="B44" r:id="rId42" xr:uid="{AF8055F0-A6BE-4C7C-8F09-2ECCB9BE661E}"/>
-    <hyperlink ref="B45" r:id="rId43" xr:uid="{FC3B3DFF-76D8-4CED-AD12-054FF5A54436}"/>
-    <hyperlink ref="B46" r:id="rId44" xr:uid="{05CAB511-9C4A-4D74-B97E-3C31A2508DE9}"/>
-    <hyperlink ref="B47" r:id="rId45" xr:uid="{50D29A95-F3AE-4AEE-B4A4-E1E3D3500CD8}"/>
-    <hyperlink ref="B48" r:id="rId46" xr:uid="{5E26FFE7-4D63-4624-8933-08088AB7686D}"/>
-    <hyperlink ref="G3" r:id="rId47" xr:uid="{0C62D461-B31E-4715-A9D6-E7E6284E441A}"/>
-    <hyperlink ref="H3" r:id="rId48" xr:uid="{9FE41338-BABB-452D-8D13-4B16795DD298}"/>
-    <hyperlink ref="F3" r:id="rId49" xr:uid="{21E76445-EF84-44D9-93B9-6FDBB23F206B}"/>
-    <hyperlink ref="F4" r:id="rId50" xr:uid="{9D315B34-C957-415C-BEDE-E8EF0A30B69C}"/>
-    <hyperlink ref="E4" r:id="rId51" xr:uid="{D9A5620F-7C89-43FB-A50F-CAD41383EBE4}"/>
-    <hyperlink ref="F5" r:id="rId52" xr:uid="{75EC96BC-F34E-44DB-8AD9-84F9EAA02266}"/>
-    <hyperlink ref="G5" r:id="rId53" xr:uid="{68C76C5C-29E3-40F4-A271-49AE0134E4B8}"/>
-    <hyperlink ref="H5" r:id="rId54" xr:uid="{5F0A209A-F51A-4BD3-8512-BEC2C9BA0719}"/>
-    <hyperlink ref="I5" r:id="rId55" xr:uid="{38DD9100-E99A-439F-A8C4-CF7872CA6F12}"/>
-    <hyperlink ref="J5" r:id="rId56" xr:uid="{04706953-2CA5-4008-958E-F916E2D50668}"/>
-    <hyperlink ref="F6" r:id="rId57" xr:uid="{2E3D6222-1911-40A3-86FE-F09ABEA70AD9}"/>
-    <hyperlink ref="H6" r:id="rId58" xr:uid="{C8BF03BB-F01E-41C8-A549-1B396EF53947}"/>
-    <hyperlink ref="J6" r:id="rId59" xr:uid="{B5B0C88E-244E-4CCA-9CE1-2444072C99A2}"/>
-    <hyperlink ref="K6" r:id="rId60" xr:uid="{69D6B65F-493A-45EF-B2AA-35C3B1EEF4E0}"/>
-    <hyperlink ref="F7" r:id="rId61" xr:uid="{70047684-0486-42AE-99EE-D57C7713EAF4}"/>
-    <hyperlink ref="F10" r:id="rId62" xr:uid="{22DD313E-1012-49E2-9755-0CCC92AD3B20}"/>
-    <hyperlink ref="F11" r:id="rId63" xr:uid="{467BFACB-C349-466A-A821-33E648489DBE}"/>
-    <hyperlink ref="F9" r:id="rId64" xr:uid="{8EB2FE83-B4D1-48F7-82DF-1D20B3EF3FE6}"/>
-    <hyperlink ref="F13" r:id="rId65" xr:uid="{CE3BCAA1-C9DC-4C40-B194-02AAFA9A64DB}"/>
-    <hyperlink ref="E14" r:id="rId66" xr:uid="{CB783B1C-00DD-428F-A2BE-50D27922D805}"/>
-    <hyperlink ref="E15" r:id="rId67" xr:uid="{CA749BDA-6BBD-4965-B870-4A6E51BB031E}"/>
-    <hyperlink ref="F15" r:id="rId68" xr:uid="{314154A9-7EF3-4B86-A52C-E6D57BC99047}"/>
-    <hyperlink ref="E16" r:id="rId69" xr:uid="{B1BF98D1-86B5-4BA6-AE48-AAE94D8F9F62}"/>
-    <hyperlink ref="B49" r:id="rId70" xr:uid="{F4DBF6A6-F442-4154-9E97-601A977F8D06}"/>
-    <hyperlink ref="G17" r:id="rId71" xr:uid="{F12F6394-93AF-4289-8B39-FAFF450BDDD6}"/>
-    <hyperlink ref="E18" r:id="rId72" xr:uid="{DD1DD8B3-428D-48C5-8BA2-9295723C4766}"/>
-    <hyperlink ref="E19" r:id="rId73" xr:uid="{695B4F48-DF8B-469C-A201-B06706BB107C}"/>
-    <hyperlink ref="E20" r:id="rId74" xr:uid="{D17A03AB-4D6F-42E0-837C-7B09115AD952}"/>
-    <hyperlink ref="E22" r:id="rId75" xr:uid="{5BF6974F-DD90-4B6A-8EDB-D8F7176FA6C4}"/>
-    <hyperlink ref="E21" r:id="rId76" xr:uid="{B39F37D2-0E74-4BBC-98E2-A0A7C9D20E06}"/>
-    <hyperlink ref="F23" r:id="rId77" xr:uid="{59C57318-C771-44CA-B3AF-FC73E25CF76A}"/>
-    <hyperlink ref="F24" r:id="rId78" xr:uid="{39ED28D9-0177-4E2B-8617-71344569D21B}"/>
-    <hyperlink ref="E25" r:id="rId79" xr:uid="{FA9FBF5A-81B6-4254-B53A-82D0B6931DCA}"/>
-    <hyperlink ref="G26" r:id="rId80" xr:uid="{ACB35A5C-0861-403B-ABC7-304730C22D8E}"/>
-    <hyperlink ref="G27" r:id="rId81" xr:uid="{4D04A444-DE4A-49AA-A6B0-6707E2B1458D}"/>
-    <hyperlink ref="E28" r:id="rId82" xr:uid="{77A33A1F-017A-404A-A806-77FB1FBBDA29}"/>
-    <hyperlink ref="F28" r:id="rId83" xr:uid="{274E75F0-02DF-40AF-9F89-ED571F0E2477}"/>
-    <hyperlink ref="E30" r:id="rId84" xr:uid="{B674B58A-4C5A-4A3C-B519-9E832961C148}"/>
-    <hyperlink ref="F29" r:id="rId85" xr:uid="{6AB9F66C-CDE1-45AE-83FB-E93EE58ADC8B}"/>
-    <hyperlink ref="G31" r:id="rId86" xr:uid="{2C2FFB63-56D2-463E-9897-057DEF1F6371}"/>
-    <hyperlink ref="F32" r:id="rId87" xr:uid="{B9E31040-BD96-4207-8A38-CBF4A16FFAB9}"/>
-    <hyperlink ref="F33" r:id="rId88" xr:uid="{FB7E3E6D-AD45-4CB8-A76F-68FCC13F2D3D}"/>
-    <hyperlink ref="E34" r:id="rId89" xr:uid="{0B735780-C356-4DB9-A16A-421547038D05}"/>
-    <hyperlink ref="F35" r:id="rId90" xr:uid="{5BA1CE17-542B-45E8-B657-F313C84B653E}"/>
-    <hyperlink ref="E36" r:id="rId91" xr:uid="{A8B9C960-9367-4A0F-A19B-E3C8C83784A4}"/>
-    <hyperlink ref="F37" r:id="rId92" xr:uid="{50003A94-3F09-434A-A14A-AF28852E78FE}"/>
-    <hyperlink ref="F38" r:id="rId93" xr:uid="{20594524-7126-437C-9693-4B5D2CAE4818}"/>
-    <hyperlink ref="E39" r:id="rId94" xr:uid="{FEAA2441-20B1-437F-9034-BA54661E34B2}"/>
-    <hyperlink ref="F40" r:id="rId95" location="tip" xr:uid="{9B0DA260-E968-468D-8F11-F88403BB1F7E}"/>
-    <hyperlink ref="F41" r:id="rId96" xr:uid="{0D1476F0-509D-42E7-B926-5D06D6EB0D59}"/>
-    <hyperlink ref="F42" r:id="rId97" xr:uid="{B39E3B6F-E652-4033-958B-F31F744FC17B}"/>
-    <hyperlink ref="E43" r:id="rId98" xr:uid="{D1628791-B476-4A16-8727-13232698757C}"/>
-    <hyperlink ref="F44" r:id="rId99" xr:uid="{CA98CC62-385F-4234-8E4D-2F2C49B3E2E9}"/>
-    <hyperlink ref="F45" r:id="rId100" xr:uid="{CAAEAF45-CB72-41EB-B08B-26CCC78BB9CB}"/>
-    <hyperlink ref="F46" r:id="rId101" xr:uid="{24BFC60B-E682-4CEA-B979-A6F9AA89ECB8}"/>
-    <hyperlink ref="E48" r:id="rId102" xr:uid="{D694E0E0-C63F-4E06-8198-0F316BF022E5}"/>
-    <hyperlink ref="E49" r:id="rId103" xr:uid="{68C36AA4-B7B2-47DA-885D-72590BCE4E38}"/>
-    <hyperlink ref="E47" r:id="rId104" xr:uid="{65EF1289-1FBB-4C92-9A1C-306D1855D8E4}"/>
-    <hyperlink ref="B50" r:id="rId105" xr:uid="{56AD7710-3D36-4ACB-A793-6C1AD76FE134}"/>
-    <hyperlink ref="E50" r:id="rId106" xr:uid="{B83C33F6-06E4-42F1-BC0C-C165788850CD}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{BA09AE86-5EC9-4510-8390-65925E76CC51}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{60936D04-DEA4-4CAA-9872-69880629389B}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{72A3A922-244C-4DB3-98DF-1CBBAAA9FDD5}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{847BB4F2-2E2F-44CE-BE85-7A8F1704C057}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{AF8055F0-A6BE-4C7C-8F09-2ECCB9BE661E}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{FC3B3DFF-76D8-4CED-AD12-054FF5A54436}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{05CAB511-9C4A-4D74-B97E-3C31A2508DE9}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{50D29A95-F3AE-4AEE-B4A4-E1E3D3500CD8}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{5E26FFE7-4D63-4624-8933-08088AB7686D}"/>
+    <hyperlink ref="G3" r:id="rId46" xr:uid="{0C62D461-B31E-4715-A9D6-E7E6284E441A}"/>
+    <hyperlink ref="H3" r:id="rId47" xr:uid="{9FE41338-BABB-452D-8D13-4B16795DD298}"/>
+    <hyperlink ref="F3" r:id="rId48" xr:uid="{21E76445-EF84-44D9-93B9-6FDBB23F206B}"/>
+    <hyperlink ref="F4" r:id="rId49" xr:uid="{9D315B34-C957-415C-BEDE-E8EF0A30B69C}"/>
+    <hyperlink ref="E4" r:id="rId50" xr:uid="{D9A5620F-7C89-43FB-A50F-CAD41383EBE4}"/>
+    <hyperlink ref="F5" r:id="rId51" xr:uid="{75EC96BC-F34E-44DB-8AD9-84F9EAA02266}"/>
+    <hyperlink ref="G5" r:id="rId52" xr:uid="{68C76C5C-29E3-40F4-A271-49AE0134E4B8}"/>
+    <hyperlink ref="H5" r:id="rId53" xr:uid="{5F0A209A-F51A-4BD3-8512-BEC2C9BA0719}"/>
+    <hyperlink ref="I5" r:id="rId54" xr:uid="{38DD9100-E99A-439F-A8C4-CF7872CA6F12}"/>
+    <hyperlink ref="J5" r:id="rId55" xr:uid="{04706953-2CA5-4008-958E-F916E2D50668}"/>
+    <hyperlink ref="F6" r:id="rId56" xr:uid="{2E3D6222-1911-40A3-86FE-F09ABEA70AD9}"/>
+    <hyperlink ref="H6" r:id="rId57" xr:uid="{C8BF03BB-F01E-41C8-A549-1B396EF53947}"/>
+    <hyperlink ref="J6" r:id="rId58" xr:uid="{B5B0C88E-244E-4CCA-9CE1-2444072C99A2}"/>
+    <hyperlink ref="K6" r:id="rId59" xr:uid="{69D6B65F-493A-45EF-B2AA-35C3B1EEF4E0}"/>
+    <hyperlink ref="F7" r:id="rId60" xr:uid="{70047684-0486-42AE-99EE-D57C7713EAF4}"/>
+    <hyperlink ref="F10" r:id="rId61" xr:uid="{22DD313E-1012-49E2-9755-0CCC92AD3B20}"/>
+    <hyperlink ref="F11" r:id="rId62" xr:uid="{467BFACB-C349-466A-A821-33E648489DBE}"/>
+    <hyperlink ref="F9" r:id="rId63" xr:uid="{8EB2FE83-B4D1-48F7-82DF-1D20B3EF3FE6}"/>
+    <hyperlink ref="F13" r:id="rId64" xr:uid="{CE3BCAA1-C9DC-4C40-B194-02AAFA9A64DB}"/>
+    <hyperlink ref="E14" r:id="rId65" xr:uid="{CB783B1C-00DD-428F-A2BE-50D27922D805}"/>
+    <hyperlink ref="E15" r:id="rId66" xr:uid="{CA749BDA-6BBD-4965-B870-4A6E51BB031E}"/>
+    <hyperlink ref="F15" r:id="rId67" xr:uid="{314154A9-7EF3-4B86-A52C-E6D57BC99047}"/>
+    <hyperlink ref="E16" r:id="rId68" xr:uid="{B1BF98D1-86B5-4BA6-AE48-AAE94D8F9F62}"/>
+    <hyperlink ref="B48" r:id="rId69" xr:uid="{F4DBF6A6-F442-4154-9E97-601A977F8D06}"/>
+    <hyperlink ref="G17" r:id="rId70" xr:uid="{F12F6394-93AF-4289-8B39-FAFF450BDDD6}"/>
+    <hyperlink ref="E18" r:id="rId71" xr:uid="{DD1DD8B3-428D-48C5-8BA2-9295723C4766}"/>
+    <hyperlink ref="E19" r:id="rId72" xr:uid="{695B4F48-DF8B-469C-A201-B06706BB107C}"/>
+    <hyperlink ref="E20" r:id="rId73" xr:uid="{D17A03AB-4D6F-42E0-837C-7B09115AD952}"/>
+    <hyperlink ref="E22" r:id="rId74" xr:uid="{5BF6974F-DD90-4B6A-8EDB-D8F7176FA6C4}"/>
+    <hyperlink ref="E21" r:id="rId75" xr:uid="{B39F37D2-0E74-4BBC-98E2-A0A7C9D20E06}"/>
+    <hyperlink ref="F23" r:id="rId76" xr:uid="{59C57318-C771-44CA-B3AF-FC73E25CF76A}"/>
+    <hyperlink ref="F24" r:id="rId77" xr:uid="{39ED28D9-0177-4E2B-8617-71344569D21B}"/>
+    <hyperlink ref="E25" r:id="rId78" xr:uid="{FA9FBF5A-81B6-4254-B53A-82D0B6931DCA}"/>
+    <hyperlink ref="G26" r:id="rId79" xr:uid="{ACB35A5C-0861-403B-ABC7-304730C22D8E}"/>
+    <hyperlink ref="G27" r:id="rId80" xr:uid="{4D04A444-DE4A-49AA-A6B0-6707E2B1458D}"/>
+    <hyperlink ref="E28" r:id="rId81" xr:uid="{77A33A1F-017A-404A-A806-77FB1FBBDA29}"/>
+    <hyperlink ref="F28" r:id="rId82" xr:uid="{274E75F0-02DF-40AF-9F89-ED571F0E2477}"/>
+    <hyperlink ref="E30" r:id="rId83" xr:uid="{B674B58A-4C5A-4A3C-B519-9E832961C148}"/>
+    <hyperlink ref="F29" r:id="rId84" xr:uid="{6AB9F66C-CDE1-45AE-83FB-E93EE58ADC8B}"/>
+    <hyperlink ref="G31" r:id="rId85" xr:uid="{2C2FFB63-56D2-463E-9897-057DEF1F6371}"/>
+    <hyperlink ref="F32" r:id="rId86" xr:uid="{B9E31040-BD96-4207-8A38-CBF4A16FFAB9}"/>
+    <hyperlink ref="F33" r:id="rId87" xr:uid="{FB7E3E6D-AD45-4CB8-A76F-68FCC13F2D3D}"/>
+    <hyperlink ref="E34" r:id="rId88" xr:uid="{0B735780-C356-4DB9-A16A-421547038D05}"/>
+    <hyperlink ref="F35" r:id="rId89" xr:uid="{5BA1CE17-542B-45E8-B657-F313C84B653E}"/>
+    <hyperlink ref="E36" r:id="rId90" xr:uid="{A8B9C960-9367-4A0F-A19B-E3C8C83784A4}"/>
+    <hyperlink ref="F37" r:id="rId91" xr:uid="{50003A94-3F09-434A-A14A-AF28852E78FE}"/>
+    <hyperlink ref="F38" r:id="rId92" xr:uid="{20594524-7126-437C-9693-4B5D2CAE4818}"/>
+    <hyperlink ref="F39" r:id="rId93" location="tip" xr:uid="{9B0DA260-E968-468D-8F11-F88403BB1F7E}"/>
+    <hyperlink ref="F40" r:id="rId94" xr:uid="{0D1476F0-509D-42E7-B926-5D06D6EB0D59}"/>
+    <hyperlink ref="F41" r:id="rId95" xr:uid="{B39E3B6F-E652-4033-958B-F31F744FC17B}"/>
+    <hyperlink ref="E42" r:id="rId96" xr:uid="{D1628791-B476-4A16-8727-13232698757C}"/>
+    <hyperlink ref="F43" r:id="rId97" xr:uid="{CA98CC62-385F-4234-8E4D-2F2C49B3E2E9}"/>
+    <hyperlink ref="F44" r:id="rId98" xr:uid="{CAAEAF45-CB72-41EB-B08B-26CCC78BB9CB}"/>
+    <hyperlink ref="F45" r:id="rId99" xr:uid="{24BFC60B-E682-4CEA-B979-A6F9AA89ECB8}"/>
+    <hyperlink ref="E47" r:id="rId100" xr:uid="{D694E0E0-C63F-4E06-8198-0F316BF022E5}"/>
+    <hyperlink ref="E48" r:id="rId101" xr:uid="{68C36AA4-B7B2-47DA-885D-72590BCE4E38}"/>
+    <hyperlink ref="E46" r:id="rId102" xr:uid="{65EF1289-1FBB-4C92-9A1C-306D1855D8E4}"/>
+    <hyperlink ref="B49" r:id="rId103" xr:uid="{56AD7710-3D36-4ACB-A793-6C1AD76FE134}"/>
+    <hyperlink ref="E49" r:id="rId104" xr:uid="{B83C33F6-06E4-42F1-BC0C-C165788850CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId107"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId105"/>
 </worksheet>
 </file>
 
@@ -2527,14 +2523,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D37F0E-1DAF-48EC-AFF2-DDEFB319F2BD}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="187.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
   </cols>
@@ -2587,7 +2583,7 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>330</v>
       </c>
     </row>
@@ -2599,7 +2595,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -2611,7 +2607,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>332</v>
       </c>
     </row>
@@ -2623,7 +2619,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>334</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2650,7 +2646,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>335</v>
       </c>
     </row>
@@ -2661,7 +2657,7 @@
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2672,7 +2668,7 @@
       <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="8" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2683,7 +2679,7 @@
       <c r="B11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2694,7 +2690,7 @@
       <c r="B12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2705,7 +2701,7 @@
       <c r="B13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>339</v>
       </c>
     </row>
@@ -2716,7 +2712,7 @@
       <c r="B14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="8" t="s">
         <v>347</v>
       </c>
     </row>
@@ -2727,7 +2723,7 @@
       <c r="B15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="8" t="s">
         <v>346</v>
       </c>
     </row>
@@ -2738,7 +2734,7 @@
       <c r="B16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="8" t="s">
         <v>345</v>
       </c>
     </row>
@@ -2749,7 +2745,7 @@
       <c r="B17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="8" t="s">
         <v>344</v>
       </c>
     </row>
@@ -2760,7 +2756,7 @@
       <c r="B18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>343</v>
       </c>
     </row>
@@ -2771,7 +2767,7 @@
       <c r="B19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="8" t="s">
         <v>342</v>
       </c>
     </row>
@@ -2783,7 +2779,7 @@
         <v>124</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="8" t="s">
         <v>341</v>
       </c>
     </row>
@@ -2794,7 +2790,7 @@
       <c r="B21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2805,7 +2801,7 @@
       <c r="B22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="8" t="s">
         <v>355</v>
       </c>
     </row>
@@ -2816,7 +2812,7 @@
       <c r="B23" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="8" t="s">
         <v>354</v>
       </c>
     </row>
@@ -2827,7 +2823,7 @@
       <c r="B24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="8" t="s">
         <v>353</v>
       </c>
     </row>
@@ -2838,7 +2834,7 @@
       <c r="B25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="8" t="s">
         <v>348</v>
       </c>
     </row>
@@ -2849,7 +2845,7 @@
       <c r="B26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="8" t="s">
         <v>352</v>
       </c>
     </row>
@@ -2861,7 +2857,7 @@
         <v>160</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="8" t="s">
         <v>349</v>
       </c>
     </row>
@@ -2872,7 +2868,8 @@
       <c r="B28" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="8" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2883,7 +2880,7 @@
       <c r="B29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="8" t="s">
         <v>317</v>
       </c>
     </row>
@@ -2954,7 +2951,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,7 +3011,7 @@
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>367</v>
       </c>
     </row>
@@ -3025,7 +3022,7 @@
       <c r="B4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>368</v>
       </c>
     </row>
@@ -3036,7 +3033,7 @@
       <c r="B5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>368</v>
       </c>
     </row>
@@ -3047,7 +3044,7 @@
       <c r="B6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="8" t="s">
         <v>369</v>
       </c>
     </row>
@@ -3058,7 +3055,7 @@
       <c r="B7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>371</v>
       </c>
     </row>
@@ -3069,7 +3066,7 @@
       <c r="B8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3080,7 +3077,7 @@
       <c r="B9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>373</v>
       </c>
     </row>
@@ -3091,7 +3088,7 @@
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="8" t="s">
         <v>374</v>
       </c>
     </row>
@@ -3102,7 +3099,7 @@
       <c r="B11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>375</v>
       </c>
     </row>
@@ -3113,7 +3110,7 @@
       <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>376</v>
       </c>
     </row>
@@ -3124,7 +3121,7 @@
       <c r="B13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>377</v>
       </c>
     </row>
@@ -3138,7 +3135,7 @@
       <c r="C14" t="s">
         <v>379</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>378</v>
       </c>
     </row>
@@ -3149,7 +3146,7 @@
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3160,7 +3157,7 @@
       <c r="B16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="8" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3171,7 +3168,7 @@
       <c r="B17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="8" t="s">
         <v>381</v>
       </c>
     </row>
@@ -3182,7 +3179,7 @@
       <c r="B18" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>383</v>
       </c>
     </row>
@@ -3233,7 +3230,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3303,7 @@
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>389</v>
       </c>
     </row>
@@ -3317,7 +3314,7 @@
       <c r="B5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>390</v>
       </c>
     </row>
@@ -3328,7 +3325,7 @@
       <c r="B6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3365,7 +3362,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,6 +3370,8 @@
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
@@ -3424,7 +3423,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3435,7 +3434,7 @@
       <c r="B4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>393</v>
       </c>
     </row>
@@ -3446,7 +3445,7 @@
       <c r="B5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3457,7 +3456,7 @@
       <c r="B6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>395</v>
       </c>
     </row>
@@ -3471,7 +3470,7 @@
       <c r="C7" t="s">
         <v>397</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>396</v>
       </c>
     </row>
@@ -3482,7 +3481,7 @@
       <c r="B8" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>382</v>
       </c>
     </row>
@@ -3512,15 +3511,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8923E2-63F3-49B9-9119-687B22F30048}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="143.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
@@ -3583,7 +3582,7 @@
         <v>78</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>409</v>
       </c>
     </row>
@@ -3597,7 +3596,7 @@
       <c r="C4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>410</v>
       </c>
     </row>
@@ -3611,7 +3610,7 @@
       <c r="C5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="8" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3628,7 +3627,7 @@
       <c r="D6" t="s">
         <v>384</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="9" t="s">
         <v>413</v>
       </c>
     </row>
@@ -3642,7 +3641,7 @@
       <c r="C7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="8" t="s">
         <v>414</v>
       </c>
     </row>
@@ -3656,7 +3655,7 @@
       <c r="C8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="8" t="s">
         <v>415</v>
       </c>
     </row>
@@ -3670,7 +3669,7 @@
       <c r="C9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>416</v>
       </c>
     </row>
@@ -3684,7 +3683,7 @@
       <c r="C10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="8" t="s">
         <v>417</v>
       </c>
     </row>
@@ -3698,7 +3697,7 @@
       <c r="C11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="8" t="s">
         <v>418</v>
       </c>
     </row>
@@ -3726,7 +3725,7 @@
       <c r="C13" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="8" t="s">
         <v>419</v>
       </c>
     </row>
@@ -3740,7 +3739,7 @@
       <c r="C14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="8" t="s">
         <v>411</v>
       </c>
     </row>
@@ -3754,7 +3753,7 @@
       <c r="C15" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="8" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3768,7 +3767,7 @@
       <c r="C16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="8" t="s">
         <v>421</v>
       </c>
     </row>
@@ -3782,7 +3781,7 @@
       <c r="C17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="8" t="s">
         <v>422</v>
       </c>
     </row>
@@ -3796,7 +3795,7 @@
       <c r="C18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="8" t="s">
         <v>423</v>
       </c>
     </row>
@@ -3810,7 +3809,7 @@
       <c r="C19" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="8" t="s">
         <v>424</v>
       </c>
     </row>
@@ -3824,7 +3823,7 @@
       <c r="C20" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="8" t="s">
         <v>425</v>
       </c>
     </row>
@@ -3838,7 +3837,7 @@
       <c r="C21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="8" t="s">
         <v>426</v>
       </c>
     </row>
@@ -3852,7 +3851,7 @@
       <c r="C22" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="8" t="s">
         <v>427</v>
       </c>
     </row>
@@ -3866,7 +3865,7 @@
       <c r="C23" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="8" t="s">
         <v>428</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3883,7 +3882,7 @@
       <c r="C24" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="8" t="s">
         <v>430</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -3900,7 +3899,7 @@
       <c r="D25" t="s">
         <v>433</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="8" t="s">
         <v>432</v>
       </c>
     </row>
@@ -3914,7 +3913,7 @@
       <c r="C26" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="8" t="s">
         <v>434</v>
       </c>
     </row>
@@ -3932,7 +3931,7 @@
       <c r="G27" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="8" t="s">
         <v>435</v>
       </c>
     </row>
@@ -3946,7 +3945,7 @@
       <c r="C28" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="8" t="s">
         <v>437</v>
       </c>
     </row>
@@ -3960,7 +3959,7 @@
       <c r="C29" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="8" t="s">
         <v>438</v>
       </c>
       <c r="G29" s="1"/>
@@ -3975,7 +3974,7 @@
       <c r="C30" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="8" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3989,7 +3988,7 @@
       <c r="C31" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="8" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4003,7 +4002,7 @@
       <c r="C32" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="8" t="s">
         <v>441</v>
       </c>
     </row>
@@ -4069,6 +4068,7 @@
     <hyperlink ref="F30" r:id="rId58" xr:uid="{0EA15809-08BF-49E7-AB77-ED6B0BEDBCCD}"/>
     <hyperlink ref="F31" r:id="rId59" xr:uid="{1543E33D-6B14-4CAB-AB04-88D28D52680C}"/>
     <hyperlink ref="G32" r:id="rId60" xr:uid="{36780543-90FC-4D36-BAF5-EBBC8C67D56B}"/>
+    <hyperlink ref="H27" r:id="rId61" xr:uid="{3C651852-45DA-45D9-9F56-7D3FB8D8D8C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/private/overview_blogs.xlsx
+++ b/private/overview_blogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857390F4-6F87-47F5-8B6F-C82B42E5A1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4B9B8C-3D2A-4737-A663-AEEA93970A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="483" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14625" yWindow="4995" windowWidth="28800" windowHeight="15435" tabRatio="483" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Englisch" sheetId="2" r:id="rId1"/>
@@ -1409,7 +1409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1419,6 +1419,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,7 +1454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1450,6 +1468,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1767,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ECA474-D700-44CE-9C5A-E8E903874F93}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E46:E49"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,7 +1852,7 @@
       <c r="A3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1846,7 +1869,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1860,7 +1883,7 @@
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1883,7 +1906,7 @@
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1912,7 +1935,7 @@
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -1934,7 +1957,7 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1"/>
@@ -1947,7 +1970,7 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
@@ -1961,7 +1984,7 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1"/>
@@ -1984,7 +2007,7 @@
       <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1998,7 +2021,7 @@
       <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -2009,7 +2032,7 @@
       <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -2023,7 +2046,7 @@
       <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2034,7 +2057,7 @@
       <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -2048,7 +2071,7 @@
       <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2059,7 +2082,7 @@
       <c r="A19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -2067,21 +2090,25 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12" t="s">
         <v>297</v>
       </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -2093,7 +2120,7 @@
       <c r="A22" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="14" t="s">
         <v>76</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2104,7 +2131,7 @@
       <c r="A23" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="14" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="1"/>
@@ -2127,7 +2154,7 @@
       <c r="A25" t="s">
         <v>176</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="14" t="s">
         <v>92</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -2138,7 +2165,7 @@
       <c r="A26" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="14" t="s">
         <v>94</v>
       </c>
       <c r="G26" s="8" t="s">
@@ -2149,7 +2176,7 @@
       <c r="A27" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G27" s="8" t="s">
@@ -2160,7 +2187,7 @@
       <c r="A28" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="13" t="s">
         <v>97</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2171,21 +2198,25 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12" t="s">
         <v>307</v>
       </c>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>179</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="14" t="s">
         <v>99</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -2197,7 +2228,7 @@
       <c r="A31" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="14" t="s">
         <v>103</v>
       </c>
       <c r="G31" s="8" t="s">
@@ -2208,7 +2239,7 @@
       <c r="A32" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="14" t="s">
         <v>109</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -2219,7 +2250,7 @@
       <c r="A33" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="14" t="s">
         <v>110</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -2230,7 +2261,7 @@
       <c r="A34" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -2241,7 +2272,7 @@
       <c r="A35" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="14" t="s">
         <v>113</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -2252,7 +2283,7 @@
       <c r="A36" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="14" t="s">
         <v>114</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -2263,7 +2294,7 @@
       <c r="A37" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="14" t="s">
         <v>130</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -2274,7 +2305,7 @@
       <c r="A38" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="14" t="s">
         <v>131</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -2285,7 +2316,7 @@
       <c r="A39" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="14" t="s">
         <v>137</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -2296,7 +2327,7 @@
       <c r="A40" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="14" t="s">
         <v>138</v>
       </c>
       <c r="F40" s="8" t="s">
@@ -2307,7 +2338,7 @@
       <c r="A41" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="14" t="s">
         <v>139</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -2318,7 +2349,7 @@
       <c r="A42" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C42" t="s">
@@ -2523,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D37F0E-1DAF-48EC-AFF2-DDEFB319F2BD}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,7 +2769,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -2749,7 +2780,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -2760,18 +2791,24 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>197</v>
       </c>
@@ -2783,7 +2820,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -2794,7 +2831,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -2805,7 +2842,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>206</v>
       </c>
@@ -2816,7 +2853,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -2827,7 +2864,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>201</v>
       </c>
@@ -2838,7 +2875,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -2849,7 +2886,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -2861,7 +2898,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>350</v>
       </c>
@@ -2873,7 +2910,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -2950,8 +2987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C41F31-489D-486F-A922-B1BB4C48EE1F}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3016,15 +3053,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>368</v>
       </c>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3071,15 +3111,18 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>373</v>
       </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3230,7 +3273,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,7 +3379,7 @@
       <c r="B7" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="15" t="s">
         <v>384</v>
       </c>
     </row>
@@ -3361,8 +3404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7209A79F-DF24-456D-92A7-CE4ADA1A7FAA}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8923E2-63F3-49B9-9119-687B22F30048}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/private/overview_blogs.xlsx
+++ b/private/overview_blogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4B9B8C-3D2A-4737-A663-AEEA93970A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCBE69C-FE6F-4DA1-8D5C-05BE7FFC3C9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14625" yWindow="4995" windowWidth="28800" windowHeight="15435" tabRatio="483" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="900" windowWidth="27285" windowHeight="20100" tabRatio="483" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Englisch" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="443">
   <si>
     <t>Name</t>
   </si>
@@ -1364,6 +1364,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/VigamusMAG/</t>
+  </si>
+  <si>
+    <t>https://leaguefeed.net/</t>
   </si>
 </sst>
 </file>
@@ -1788,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ECA474-D700-44CE-9C5A-E8E903874F93}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,6 +2439,14 @@
       <c r="E49" s="8" t="s">
         <v>358</v>
       </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2544,9 +2555,10 @@
     <hyperlink ref="E46" r:id="rId102" xr:uid="{65EF1289-1FBB-4C92-9A1C-306D1855D8E4}"/>
     <hyperlink ref="B49" r:id="rId103" xr:uid="{56AD7710-3D36-4ACB-A793-6C1AD76FE134}"/>
     <hyperlink ref="E49" r:id="rId104" xr:uid="{B83C33F6-06E4-42F1-BC0C-C165788850CD}"/>
+    <hyperlink ref="B50" r:id="rId105" xr:uid="{B1B591A2-E790-4876-A763-F5FF7E327387}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId105"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId106"/>
 </worksheet>
 </file>
 
@@ -3554,7 +3566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8923E2-63F3-49B9-9119-687B22F30048}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
